--- a/propuesta fundemerca.xlsx
+++ b/propuesta fundemerca.xlsx
@@ -364,7 +364,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5335,7 +5334,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10278,7 +10276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
@@ -14574,17 +14572,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/propuesta fundemerca.xlsx
+++ b/propuesta fundemerca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Intervalos propuestos" sheetId="6" r:id="rId4"/>
     <sheet name="Intervalos Generados" sheetId="4" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5400,6 +5403,2046 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Flexibles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Intervalos finales productores'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inferior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Intervalos finales productores'!$C$4:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>9.7788152551082606E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0581631174453454E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1754046717507276E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2428363815292233E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0020640545174228E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000451058836728E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0466577968975184E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2810853173733503E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8405081358488655E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.180265033409368E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3798118951068071E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.503385333038859E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6969719322400365E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2068855356824868E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.506489837461525E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0997091196700955E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8420455287964152E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3460181046352338E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3265827355353501E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4027250530356758E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4870021380749694E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.9824077603693131E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9580120086738468E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6867875816285214E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2849933142418673E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4220173564151612E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0955613625522732E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4035753845365116E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4979976844291159E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1155165317512842E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0466787871979192E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0867700627293417E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0595299369769424E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.573168907624995E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4699745082761991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3236475204520384E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1334534236819788E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.134472959163948E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0085502919607348E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.9580120086738468E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5331462364387463E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7600948455265265E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.1343993354656428E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0020640545174228E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.8259638969281715E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.1304019438005219E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1112430356061909E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2389613390461286E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53CD-4BB6-B5E9-2D6673A7FDC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Intervalos finales productores'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Superior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Intervalos finales productores'!$D$4:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.5913877215295975E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9117242344121874E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7318606749461773E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10037325114945084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7545953319678831E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11155978396773025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1052604365895777E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3201112315604324E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7382290388109842E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3753696224667773E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5245988168233229E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4120639177866163E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11789028780157729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7327671070721693E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.996780784975043E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10238673742963478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4432235631596733E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10313654794550842</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7705555294467747E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.054415466789421E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.357589266390129E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.10493368403602865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6702967402606625E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4783418224861333E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.330641917543625E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10067736645664904</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1460393991038336E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9076258183104939E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.3365474637230421E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4062077258677426E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2837734257360953E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.4569622773026247E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10933469277531627</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8032760806448258E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.2622259618890914E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3021956893641549E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9639356455248547E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.3593805482852104E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.4532134057117663E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11411080486394343</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13482718113142067</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.13037483261441873</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.357589266390129E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.10435570418003848</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.6899429082496567E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.8642413598954963E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.6668813796111004E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.12289871588113555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53CD-4BB6-B5E9-2D6673A7FDC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Intervalos finales productores'!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>flexible</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Intervalos finales productores'!$C$56:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>4.784634623520212E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4849436759287667E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9536326733484527E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6400807482371536E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8783296932426527E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0780117513283494E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.075959116743548E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3741098816488839E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3111399261979357E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2778173279380725E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4522053559650649E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4812012255452512E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7430003561988833E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2267278303202087E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2516353112182839E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6691914313167863E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0137140580196573E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6241283025071823E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9516069015001548E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6973439860464946E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6531447400988126E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.745804589819898E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.233048970564024E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0825647020573272E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6967459253430217E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.744877001040033E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9277977676795301E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1556006014235031E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7431736160829766E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5588796895214355E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1652261064670071E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3828196417877793E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9964996072542846E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2302964857036626E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3046117063583557E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3129216049080966E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.048694534603417E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.2469267537245795E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7308818488362504E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.103440843630864E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.5079321747904063E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.3987890534842005E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6355145999683466E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.718817236260635E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2862696489712372E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.3886407771377742E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8890622076086456E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7644164635798421E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53CD-4BB6-B5E9-2D6673A7FDC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Intervalos finales productores'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>META</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Intervalos finales productores'!$H$4:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-53CD-4BB6-B5E9-2D6673A7FDC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="475827928"/>
+        <c:axId val="475828256"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="475827928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475828256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="475828256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475827928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>EXIGENTES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Intervalos finales productores'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inferior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Intervalos finales productores'!$E$4:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1.8464555865077115E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5488285801558477E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1339404543395446E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5405554786504858E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.861410975446065E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.411553244548692E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9928097326246008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4499390410438795E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6996802499655517E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2465822272314102E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7855731346684065E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2528171559232359E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2653342394252984E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5992626733667414E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.958287330209485E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9443783600047393E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.740227397717109E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0512659653128429E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3392021204187206E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4631815168728801E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8071113181189591E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9362577136936565E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5933966830937729E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1819024573725199E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.7609709574213444E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6828883816560012E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4545521517898785E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4372543362244148E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.047231807107976E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4586274342798577E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8882110810163E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3183749251233294E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7782747633616647E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3647336399046694E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0786124867182627E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3542555230794737E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6988720462365881E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7368542718371405E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5697641157323194E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5933966830937729E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9738379125890493E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1714556779486527E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.740227397717109E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.861410975446065E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.937733763323457E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4858957604453216E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0474878538684349E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3780909163713004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4C0-4DF0-A574-6CBBE151DFF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Intervalos finales productores'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Superior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Intervalos finales productores'!$F$4:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>6.6502590428620278E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7478812792070991E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0131485534768455E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3168264260430854E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9055701752429751E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9865880475373505E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3390765979019546E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6556371699174315E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.894964882288637E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4324485196669464E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4652583497444871E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.490340907495977E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10502449496865905</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3574655205062849E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0054134380961979E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.7463724666055731E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6350813646779553E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6330936165841884E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5607521931984768E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9641027899044961E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4751367704510057E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.0971522858486522E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.537644217549683E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5897816608143996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3096590804953648E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4186838650892623E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1445980706064643E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8977307187676487E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0845626424668862E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4857754252320987E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3986217274952807E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5358889203911186E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.093857077439485E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2589900693957065E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.2894482434461677E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6574956178320581E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6797412621892994E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0850251608887726E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.2772924700858946E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.1452882234430183E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.12362510477764389</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.12065692298419085</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6880919492669391E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.3027114078755473E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7614089485154246E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5692966787837093E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8301445094402512E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.8112121407240391E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4C0-4DF0-A574-6CBBE151DFF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Intervalos finales productores'!$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exigente </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Intervalos finales productores'!$D$56:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>4.2483573146848697E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1483549296814734E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5735445039081951E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9286909523467856E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3834905753445201E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1990706460430212E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6659431652632773E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0527881054806555E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.797322566127094E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8395153734491783E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1254157422064471E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8715790317096065E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3838918681456025E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9783640969365132E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9818503841528415E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3453754133051562E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6876543811975318E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8421797909485156E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1973362026201744E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2136421533886877E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6411240442849824E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0167049997711544E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5655204503217283E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8858420590934598E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1428780881187496E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0507861233726317E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2995751111981714E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6674925274960317E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2446429115888423E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9722014297559782E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6434164042557907E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7338632064517258E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4360659204005748E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.811861854650188E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.598654746058997E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5058755704557659E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6893066542129441E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9109397163629565E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.4235282929091074E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3693424532683956E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.1681741951767186E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.1185739881838683E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.2141596734920244E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0820611916608062E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.8495713559194408E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0275962196145154E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.4388161816543431E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.0946515285476698E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B4C0-4DF0-A574-6CBBE151DFF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Intervalos finales productores'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>META</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Intervalos finales productores'!$H$4:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B4C0-4DF0-A574-6CBBE151DFF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="484270536"/>
+        <c:axId val="484271192"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="484270536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484271192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484271192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484270536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5408,6 +7451,80 @@
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5956,6 +8073,1046 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5989,6 +9146,1336 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518F2B33-B278-41CD-B783-BAF0DF668451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D841478-8555-429C-BA9A-22068B91A605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="cantidad inicial pollos"/>
+      <sheetName val="cantidad pollos muertos"/>
+      <sheetName val="Estadisticas Descriptivas"/>
+      <sheetName val="porcentaje de mortalidad"/>
+      <sheetName val="regiones de credibilidad bin"/>
+      <sheetName val="Intervalos finales productores"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Inferior</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Superior</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Inferior</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Superior</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>META</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>9.7788152551082606E-3</v>
+          </cell>
+          <cell r="D4">
+            <v>8.5913877215295975E-2</v>
+          </cell>
+          <cell r="E4">
+            <v>1.8464555865077115E-2</v>
+          </cell>
+          <cell r="F4">
+            <v>6.6502590428620278E-2</v>
+          </cell>
+          <cell r="H4">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1.0581631174453454E-2</v>
+          </cell>
+          <cell r="D5">
+            <v>7.9117242344121874E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>1.5488285801558477E-2</v>
+          </cell>
+          <cell r="F5">
+            <v>6.7478812792070991E-2</v>
+          </cell>
+          <cell r="H5">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>1.1754046717507276E-2</v>
+          </cell>
+          <cell r="D6">
+            <v>6.7318606749461773E-2</v>
+          </cell>
+          <cell r="E6">
+            <v>2.1339404543395446E-2</v>
+          </cell>
+          <cell r="F6">
+            <v>5.0131485534768455E-2</v>
+          </cell>
+          <cell r="H6">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1.2428363815292233E-2</v>
+          </cell>
+          <cell r="D7">
+            <v>0.10037325114945084</v>
+          </cell>
+          <cell r="E7">
+            <v>2.5405554786504858E-2</v>
+          </cell>
+          <cell r="F7">
+            <v>7.3168264260430854E-2</v>
+          </cell>
+          <cell r="H7">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>1.0020640545174228E-2</v>
+          </cell>
+          <cell r="D8">
+            <v>6.7545953319678831E-2</v>
+          </cell>
+          <cell r="E8">
+            <v>1.861410975446065E-2</v>
+          </cell>
+          <cell r="F8">
+            <v>4.9055701752429751E-2</v>
+          </cell>
+          <cell r="H8">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>1.0000451058836728E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>0.11155978396773025</v>
+          </cell>
+          <cell r="E9">
+            <v>2.411553244548692E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>7.9865880475373505E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>1.0466577968975184E-2</v>
+          </cell>
+          <cell r="D10">
+            <v>7.1052604365895777E-2</v>
+          </cell>
+          <cell r="E10">
+            <v>1.9928097326246008E-2</v>
+          </cell>
+          <cell r="F10">
+            <v>5.3390765979019546E-2</v>
+          </cell>
+          <cell r="H10">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>4.2810853173733503E-3</v>
+          </cell>
+          <cell r="D11">
+            <v>6.3201112315604324E-2</v>
+          </cell>
+          <cell r="E11">
+            <v>1.4499390410438795E-2</v>
+          </cell>
+          <cell r="F11">
+            <v>4.6556371699174315E-2</v>
+          </cell>
+          <cell r="H11">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>8.8405081358488655E-3</v>
+          </cell>
+          <cell r="D12">
+            <v>7.7382290388109842E-2</v>
+          </cell>
+          <cell r="E12">
+            <v>1.6996802499655517E-2</v>
+          </cell>
+          <cell r="F12">
+            <v>5.894964882288637E-2</v>
+          </cell>
+          <cell r="H12">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>2.180265033409368E-2</v>
+          </cell>
+          <cell r="D13">
+            <v>8.3753696224667773E-2</v>
+          </cell>
+          <cell r="E13">
+            <v>4.2465822272314102E-2</v>
+          </cell>
+          <cell r="F13">
+            <v>5.4324485196669464E-2</v>
+          </cell>
+          <cell r="H13">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>1.3798118951068071E-2</v>
+          </cell>
+          <cell r="D14">
+            <v>5.5245988168233229E-2</v>
+          </cell>
+          <cell r="E14">
+            <v>2.7855731346684065E-2</v>
+          </cell>
+          <cell r="F14">
+            <v>3.4652583497444871E-2</v>
+          </cell>
+          <cell r="H14">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>5.503385333038859E-3</v>
+          </cell>
+          <cell r="D15">
+            <v>8.4120639177866163E-2</v>
+          </cell>
+          <cell r="E15">
+            <v>1.2528171559232359E-2</v>
+          </cell>
+          <cell r="F15">
+            <v>6.490340907495977E-2</v>
+          </cell>
+          <cell r="H15">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>1.6969719322400365E-2</v>
+          </cell>
+          <cell r="D16">
+            <v>0.11789028780157729</v>
+          </cell>
+          <cell r="E16">
+            <v>2.2653342394252984E-2</v>
+          </cell>
+          <cell r="F16">
+            <v>0.10502449496865905</v>
+          </cell>
+          <cell r="H16">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>7.2068855356824868E-3</v>
+          </cell>
+          <cell r="D17">
+            <v>7.7327671070721693E-2</v>
+          </cell>
+          <cell r="E17">
+            <v>1.5992626733667414E-2</v>
+          </cell>
+          <cell r="F17">
+            <v>6.3574655205062849E-2</v>
+          </cell>
+          <cell r="H17">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>1.506489837461525E-2</v>
+          </cell>
+          <cell r="D18">
+            <v>6.996780784975043E-2</v>
+          </cell>
+          <cell r="E18">
+            <v>1.958287330209485E-2</v>
+          </cell>
+          <cell r="F18">
+            <v>6.0054134380961979E-2</v>
+          </cell>
+          <cell r="H18">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>1.0997091196700955E-2</v>
+          </cell>
+          <cell r="D19">
+            <v>0.10238673742963478</v>
+          </cell>
+          <cell r="E19">
+            <v>1.9443783600047393E-2</v>
+          </cell>
+          <cell r="F19">
+            <v>8.7463724666055731E-2</v>
+          </cell>
+          <cell r="H19">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>5.8420455287964152E-3</v>
+          </cell>
+          <cell r="D20">
+            <v>7.4432235631596733E-2</v>
+          </cell>
+          <cell r="E20">
+            <v>1.740227397717109E-2</v>
+          </cell>
+          <cell r="F20">
+            <v>5.6350813646779553E-2</v>
+          </cell>
+          <cell r="H20">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>9.3460181046352338E-3</v>
+          </cell>
+          <cell r="D21">
+            <v>0.10313654794550842</v>
+          </cell>
+          <cell r="E21">
+            <v>2.0512659653128429E-2</v>
+          </cell>
+          <cell r="F21">
+            <v>7.6330936165841884E-2</v>
+          </cell>
+          <cell r="H21">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>1.3265827355353501E-3</v>
+          </cell>
+          <cell r="D22">
+            <v>5.7705555294467747E-2</v>
+          </cell>
+          <cell r="E22">
+            <v>8.3392021204187206E-3</v>
+          </cell>
+          <cell r="F22">
+            <v>9.5607521931984768E-2</v>
+          </cell>
+          <cell r="H22">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>3.4027250530356758E-3</v>
+          </cell>
+          <cell r="D23">
+            <v>7.054415466789421E-2</v>
+          </cell>
+          <cell r="E23">
+            <v>1.4631815168728801E-2</v>
+          </cell>
+          <cell r="F23">
+            <v>4.9641027899044961E-2</v>
+          </cell>
+          <cell r="H23">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>9.4870021380749694E-3</v>
+          </cell>
+          <cell r="D24">
+            <v>6.357589266390129E-2</v>
+          </cell>
+          <cell r="E24">
+            <v>1.8071113181189591E-2</v>
+          </cell>
+          <cell r="F24">
+            <v>5.4751367704510057E-2</v>
+          </cell>
+          <cell r="H24">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>9.9824077603693131E-3</v>
+          </cell>
+          <cell r="D25">
+            <v>0.10493368403602865</v>
+          </cell>
+          <cell r="E25">
+            <v>1.9362577136936565E-2</v>
+          </cell>
+          <cell r="F25">
+            <v>8.0971522858486522E-2</v>
+          </cell>
+          <cell r="H25">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>7.9580120086738468E-3</v>
+          </cell>
+          <cell r="D26">
+            <v>7.6702967402606625E-2</v>
+          </cell>
+          <cell r="E26">
+            <v>1.5933966830937729E-2</v>
+          </cell>
+          <cell r="F26">
+            <v>5.537644217549683E-2</v>
+          </cell>
+          <cell r="H26">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>1.6867875816285214E-2</v>
+          </cell>
+          <cell r="D27">
+            <v>6.4783418224861333E-2</v>
+          </cell>
+          <cell r="E27">
+            <v>2.1819024573725199E-2</v>
+          </cell>
+          <cell r="F27">
+            <v>5.5897816608143996E-2</v>
+          </cell>
+          <cell r="H27">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>6.2849933142418673E-4</v>
+          </cell>
+          <cell r="D28">
+            <v>9.330641917543625E-2</v>
+          </cell>
+          <cell r="E28">
+            <v>9.7609709574213444E-3</v>
+          </cell>
+          <cell r="F28">
+            <v>7.3096590804953648E-2</v>
+          </cell>
+          <cell r="H28">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>1.4220173564151612E-2</v>
+          </cell>
+          <cell r="D29">
+            <v>0.10067736645664904</v>
+          </cell>
+          <cell r="E29">
+            <v>2.6828883816560012E-2</v>
+          </cell>
+          <cell r="F29">
+            <v>7.4186838650892623E-2</v>
+          </cell>
+          <cell r="H29">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>7.0955613625522732E-3</v>
+          </cell>
+          <cell r="D30">
+            <v>9.1460393991038336E-2</v>
+          </cell>
+          <cell r="E30">
+            <v>1.4545521517898785E-2</v>
+          </cell>
+          <cell r="F30">
+            <v>7.1445980706064643E-2</v>
+          </cell>
+          <cell r="H30">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>1.4035753845365116E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>8.9076258183104939E-2</v>
+          </cell>
+          <cell r="E31">
+            <v>2.4372543362244148E-2</v>
+          </cell>
+          <cell r="F31">
+            <v>6.8977307187676487E-2</v>
+          </cell>
+          <cell r="H31">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>1.4979976844291159E-3</v>
+          </cell>
+          <cell r="D32">
+            <v>7.3365474637230421E-2</v>
+          </cell>
+          <cell r="E32">
+            <v>4.047231807107976E-3</v>
+          </cell>
+          <cell r="F32">
+            <v>6.0845626424668862E-2</v>
+          </cell>
+          <cell r="H32">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>7.1155165317512842E-3</v>
+          </cell>
+          <cell r="D33">
+            <v>8.4062077258677426E-2</v>
+          </cell>
+          <cell r="E33">
+            <v>1.4586274342798577E-2</v>
+          </cell>
+          <cell r="F33">
+            <v>6.4857754252320987E-2</v>
+          </cell>
+          <cell r="H33">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>1.0466787871979192E-2</v>
+          </cell>
+          <cell r="D34">
+            <v>7.2837734257360953E-2</v>
+          </cell>
+          <cell r="E34">
+            <v>1.8882110810163E-2</v>
+          </cell>
+          <cell r="F34">
+            <v>5.3986217274952807E-2</v>
+          </cell>
+          <cell r="H34">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>3.0867700627293417E-3</v>
+          </cell>
+          <cell r="D35">
+            <v>6.4569622773026247E-2</v>
+          </cell>
+          <cell r="E35">
+            <v>9.3183749251233294E-3</v>
+          </cell>
+          <cell r="F35">
+            <v>4.5358889203911186E-2</v>
+          </cell>
+          <cell r="H35">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>1.0595299369769424E-2</v>
+          </cell>
+          <cell r="D36">
+            <v>0.10933469277531627</v>
+          </cell>
+          <cell r="E36">
+            <v>1.7782747633616647E-2</v>
+          </cell>
+          <cell r="F36">
+            <v>9.093857077439485E-2</v>
+          </cell>
+          <cell r="H36">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>6.573168907624995E-3</v>
+          </cell>
+          <cell r="D37">
+            <v>5.8032760806448258E-2</v>
+          </cell>
+          <cell r="E37">
+            <v>1.3647336399046694E-2</v>
+          </cell>
+          <cell r="F37">
+            <v>4.2589900693957065E-2</v>
+          </cell>
+          <cell r="H37">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>3.4699745082761991E-3</v>
+          </cell>
+          <cell r="D38">
+            <v>8.2622259618890914E-2</v>
+          </cell>
+          <cell r="E38">
+            <v>9.0786124867182627E-3</v>
+          </cell>
+          <cell r="F38">
+            <v>6.2894482434461677E-2</v>
+          </cell>
+          <cell r="H38">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>1.3236475204520384E-2</v>
+          </cell>
+          <cell r="D39">
+            <v>7.3021956893641549E-2</v>
+          </cell>
+          <cell r="E39">
+            <v>2.3542555230794737E-2</v>
+          </cell>
+          <cell r="F39">
+            <v>4.6574956178320581E-2</v>
+          </cell>
+          <cell r="H39">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>1.1334534236819788E-2</v>
+          </cell>
+          <cell r="D40">
+            <v>6.9639356455248547E-2</v>
+          </cell>
+          <cell r="E40">
+            <v>1.6988720462365881E-2</v>
+          </cell>
+          <cell r="F40">
+            <v>5.6797412621892994E-2</v>
+          </cell>
+          <cell r="H40">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>1.134472959163948E-2</v>
+          </cell>
+          <cell r="D41">
+            <v>7.3593805482852104E-2</v>
+          </cell>
+          <cell r="E41">
+            <v>1.7368542718371405E-2</v>
+          </cell>
+          <cell r="F41">
+            <v>6.0850251608887726E-2</v>
+          </cell>
+          <cell r="H41">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>1.0085502919607348E-2</v>
+          </cell>
+          <cell r="D42">
+            <v>6.4532134057117663E-2</v>
+          </cell>
+          <cell r="E42">
+            <v>1.5697641157323194E-2</v>
+          </cell>
+          <cell r="F42">
+            <v>5.2772924700858946E-2</v>
+          </cell>
+          <cell r="H42">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>7.9580120086738468E-3</v>
+          </cell>
+          <cell r="D43">
+            <v>0.11411080486394343</v>
+          </cell>
+          <cell r="E43">
+            <v>1.5933966830937729E-2</v>
+          </cell>
+          <cell r="F43">
+            <v>9.1452882234430183E-2</v>
+          </cell>
+          <cell r="H43">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>1.5331462364387463E-2</v>
+          </cell>
+          <cell r="D44">
+            <v>0.13482718113142067</v>
+          </cell>
+          <cell r="E44">
+            <v>1.9738379125890493E-2</v>
+          </cell>
+          <cell r="F44">
+            <v>0.12362510477764389</v>
+          </cell>
+          <cell r="H44">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>1.7600948455265265E-2</v>
+          </cell>
+          <cell r="D45">
+            <v>0.13037483261441873</v>
+          </cell>
+          <cell r="E45">
+            <v>2.1714556779486527E-2</v>
+          </cell>
+          <cell r="F45">
+            <v>0.12065692298419085</v>
+          </cell>
+          <cell r="H45">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>9.1343993354656428E-3</v>
+          </cell>
+          <cell r="D46">
+            <v>6.357589266390129E-2</v>
+          </cell>
+          <cell r="E46">
+            <v>1.740227397717109E-2</v>
+          </cell>
+          <cell r="F46">
+            <v>4.6880919492669391E-2</v>
+          </cell>
+          <cell r="H46">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>1.0020640545174228E-2</v>
+          </cell>
+          <cell r="D47">
+            <v>0.10435570418003848</v>
+          </cell>
+          <cell r="E47">
+            <v>1.861410975446065E-2</v>
+          </cell>
+          <cell r="F47">
+            <v>8.3027114078755473E-2</v>
+          </cell>
+          <cell r="H47">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>8.8259638969281715E-3</v>
+          </cell>
+          <cell r="D48">
+            <v>5.6899429082496567E-2</v>
+          </cell>
+          <cell r="E48">
+            <v>1.937733763323457E-2</v>
+          </cell>
+          <cell r="F48">
+            <v>3.7614089485154246E-2</v>
+          </cell>
+          <cell r="H48">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>9.1304019438005219E-3</v>
+          </cell>
+          <cell r="D49">
+            <v>7.8642413598954963E-2</v>
+          </cell>
+          <cell r="E49">
+            <v>1.4858957604453216E-2</v>
+          </cell>
+          <cell r="F49">
+            <v>6.5692966787837093E-2</v>
+          </cell>
+          <cell r="H49">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>1.1112430356061909E-2</v>
+          </cell>
+          <cell r="D50">
+            <v>6.6668813796111004E-2</v>
+          </cell>
+          <cell r="E50">
+            <v>2.0474878538684349E-2</v>
+          </cell>
+          <cell r="F50">
+            <v>4.8301445094402512E-2</v>
+          </cell>
+          <cell r="H50">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>1.2389613390461286E-2</v>
+          </cell>
+          <cell r="D51">
+            <v>0.12289871588113555</v>
+          </cell>
+          <cell r="E51">
+            <v>2.3780909163713004E-2</v>
+          </cell>
+          <cell r="F51">
+            <v>9.8112121407240391E-2</v>
+          </cell>
+          <cell r="H51">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55" t="str">
+            <v>flexible</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v xml:space="preserve">exigente </v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>4.784634623520212E-2</v>
+          </cell>
+          <cell r="D56">
+            <v>4.2483573146848697E-2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>4.4849436759287667E-2</v>
+          </cell>
+          <cell r="D57">
+            <v>4.1483549296814734E-2</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>3.9536326733484527E-2</v>
+          </cell>
+          <cell r="D58">
+            <v>3.5735445039081951E-2</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>5.6400807482371536E-2</v>
+          </cell>
+          <cell r="D59">
+            <v>4.9286909523467856E-2</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>3.8783296932426527E-2</v>
+          </cell>
+          <cell r="D60">
+            <v>3.3834905753445201E-2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>6.0780117513283494E-2</v>
+          </cell>
+          <cell r="D61">
+            <v>5.1990706460430212E-2</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>4.075959116743548E-2</v>
+          </cell>
+          <cell r="D62">
+            <v>3.6659431652632773E-2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>3.3741098816488839E-2</v>
+          </cell>
+          <cell r="D63">
+            <v>3.0527881054806555E-2</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>4.3111399261979357E-2</v>
+          </cell>
+          <cell r="D64">
+            <v>3.797322566127094E-2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>5.2778173279380725E-2</v>
+          </cell>
+          <cell r="D65">
+            <v>4.8395153734491783E-2</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>3.4522053559650649E-2</v>
+          </cell>
+          <cell r="D66">
+            <v>3.1254157422064471E-2</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>4.4812012255452512E-2</v>
+          </cell>
+          <cell r="D67">
+            <v>3.8715790317096065E-2</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>6.7430003561988833E-2</v>
+          </cell>
+          <cell r="D68">
+            <v>6.3838918681456025E-2</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>4.2267278303202087E-2</v>
+          </cell>
+          <cell r="D69">
+            <v>3.9783640969365132E-2</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>4.2516353112182839E-2</v>
+          </cell>
+          <cell r="D70">
+            <v>3.9818503841528415E-2</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>5.6691914313167863E-2</v>
+          </cell>
+          <cell r="D71">
+            <v>5.3453754133051562E-2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>4.0137140580196573E-2</v>
+          </cell>
+          <cell r="D72">
+            <v>3.6876543811975318E-2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>5.6241283025071823E-2</v>
+          </cell>
+          <cell r="D73">
+            <v>4.8421797909485156E-2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>2.9516069015001548E-2</v>
+          </cell>
+          <cell r="D74">
+            <v>5.1973362026201744E-2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>3.6973439860464946E-2</v>
+          </cell>
+          <cell r="D75">
+            <v>3.2136421533886877E-2</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>3.6531447400988126E-2</v>
+          </cell>
+          <cell r="D76">
+            <v>3.6411240442849824E-2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>5.745804589819898E-2</v>
+          </cell>
+          <cell r="D77">
+            <v>5.0167049997711544E-2</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>4.233048970564024E-2</v>
+          </cell>
+          <cell r="D78">
+            <v>3.5655204503217283E-2</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>4.0825647020573272E-2</v>
+          </cell>
+          <cell r="D79">
+            <v>3.8858420590934598E-2</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>4.6967459253430217E-2</v>
+          </cell>
+          <cell r="D80">
+            <v>4.1428780881187496E-2</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>5.744877001040033E-2</v>
+          </cell>
+          <cell r="D81">
+            <v>5.0507861233726317E-2</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>4.9277977676795301E-2</v>
+          </cell>
+          <cell r="D82">
+            <v>4.2995751111981714E-2</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>5.1556006014235031E-2</v>
+          </cell>
+          <cell r="D83">
+            <v>4.6674925274960317E-2</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>3.7431736160829766E-2</v>
+          </cell>
+          <cell r="D84">
+            <v>3.2446429115888423E-2</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>4.5588796895214355E-2</v>
+          </cell>
+          <cell r="D85">
+            <v>3.9722014297559782E-2</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>4.1652261064670071E-2</v>
+          </cell>
+          <cell r="D86">
+            <v>3.6434164042557907E-2</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>3.3828196417877793E-2</v>
+          </cell>
+          <cell r="D87">
+            <v>2.7338632064517258E-2</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>5.9964996072542846E-2</v>
+          </cell>
+          <cell r="D88">
+            <v>5.4360659204005748E-2</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89">
+            <v>3.2302964857036626E-2</v>
+          </cell>
+          <cell r="D89">
+            <v>2.811861854650188E-2</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90">
+            <v>4.3046117063583557E-2</v>
+          </cell>
+          <cell r="D90">
+            <v>3.598654746058997E-2</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91">
+            <v>4.3129216049080966E-2</v>
+          </cell>
+          <cell r="D91">
+            <v>3.5058755704557659E-2</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92">
+            <v>4.048694534603417E-2</v>
+          </cell>
+          <cell r="D92">
+            <v>3.6893066542129441E-2</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93">
+            <v>4.2469267537245795E-2</v>
+          </cell>
+          <cell r="D93">
+            <v>3.9109397163629565E-2</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94">
+            <v>3.7308818488362504E-2</v>
+          </cell>
+          <cell r="D94">
+            <v>3.4235282929091074E-2</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95">
+            <v>6.103440843630864E-2</v>
+          </cell>
+          <cell r="D95">
+            <v>5.3693424532683956E-2</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96">
+            <v>7.5079321747904063E-2</v>
+          </cell>
+          <cell r="D96">
+            <v>7.1681741951767186E-2</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="C97">
+            <v>7.3987890534842005E-2</v>
+          </cell>
+          <cell r="D97">
+            <v>7.1185739881838683E-2</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98">
+            <v>3.6355145999683466E-2</v>
+          </cell>
+          <cell r="D98">
+            <v>3.2141596734920244E-2</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="C99">
+            <v>5.718817236260635E-2</v>
+          </cell>
+          <cell r="D99">
+            <v>5.0820611916608062E-2</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100">
+            <v>3.2862696489712372E-2</v>
+          </cell>
+          <cell r="D100">
+            <v>2.8495713559194408E-2</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="C101">
+            <v>4.3886407771377742E-2</v>
+          </cell>
+          <cell r="D101">
+            <v>4.0275962196145154E-2</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="C102">
+            <v>3.8890622076086456E-2</v>
+          </cell>
+          <cell r="D102">
+            <v>3.4388161816543431E-2</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="C103">
+            <v>6.7644164635798421E-2</v>
+          </cell>
+          <cell r="D103">
+            <v>6.0946515285476698E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6252,6 +10739,510 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
@@ -9161,8 +14152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10269,6 +15260,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10276,7 +15268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>

--- a/propuesta fundemerca.xlsx
+++ b/propuesta fundemerca.xlsx
@@ -5403,2046 +5403,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Flexibles</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:stockChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Intervalos finales productores'!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inferior</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Intervalos finales productores'!$C$4:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>9.7788152551082606E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0581631174453454E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1754046717507276E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2428363815292233E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0020640545174228E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0000451058836728E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0466577968975184E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2810853173733503E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.8405081358488655E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.180265033409368E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3798118951068071E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.503385333038859E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6969719322400365E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.2068855356824868E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.506489837461525E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0997091196700955E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.8420455287964152E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.3460181046352338E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.3265827355353501E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.4027250530356758E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.4870021380749694E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.9824077603693131E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.9580120086738468E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.6867875816285214E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2849933142418673E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4220173564151612E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.0955613625522732E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.4035753845365116E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4979976844291159E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.1155165317512842E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0466787871979192E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.0867700627293417E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.0595299369769424E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.573168907624995E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4699745082761991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.3236475204520384E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.1334534236819788E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.134472959163948E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.0085502919607348E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.9580120086738468E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.5331462364387463E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.7600948455265265E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.1343993354656428E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0020640545174228E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.8259638969281715E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.1304019438005219E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.1112430356061909E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2389613390461286E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-53CD-4BB6-B5E9-2D6673A7FDC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Intervalos finales productores'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Superior</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Intervalos finales productores'!$D$4:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>8.5913877215295975E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9117242344121874E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7318606749461773E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10037325114945084</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7545953319678831E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11155978396773025</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.1052604365895777E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3201112315604324E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7382290388109842E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.3753696224667773E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.5245988168233229E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4120639177866163E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.11789028780157729</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.7327671070721693E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.996780784975043E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.10238673742963478</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.4432235631596733E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.10313654794550842</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.7705555294467747E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.054415466789421E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.357589266390129E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.10493368403602865</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.6702967402606625E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.4783418224861333E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.330641917543625E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.10067736645664904</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.1460393991038336E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.9076258183104939E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.3365474637230421E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.4062077258677426E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.2837734257360953E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.4569622773026247E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.10933469277531627</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.8032760806448258E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.2622259618890914E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.3021956893641549E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.9639356455248547E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.3593805482852104E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.4532134057117663E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.11411080486394343</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.13482718113142067</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.13037483261441873</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.357589266390129E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.10435570418003848</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.6899429082496567E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.8642413598954963E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.6668813796111004E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.12289871588113555</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-53CD-4BB6-B5E9-2D6673A7FDC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Intervalos finales productores'!$C$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>flexible</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Intervalos finales productores'!$C$56:$C$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>4.784634623520212E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4849436759287667E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9536326733484527E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6400807482371536E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8783296932426527E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0780117513283494E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.075959116743548E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.3741098816488839E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.3111399261979357E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2778173279380725E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4522053559650649E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.4812012255452512E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7430003561988833E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.2267278303202087E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.2516353112182839E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.6691914313167863E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.0137140580196573E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.6241283025071823E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.9516069015001548E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.6973439860464946E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.6531447400988126E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.745804589819898E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.233048970564024E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.0825647020573272E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.6967459253430217E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.744877001040033E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.9277977676795301E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.1556006014235031E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.7431736160829766E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.5588796895214355E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.1652261064670071E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3828196417877793E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.9964996072542846E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.2302964857036626E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.3046117063583557E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.3129216049080966E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.048694534603417E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.2469267537245795E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.7308818488362504E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.103440843630864E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.5079321747904063E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.3987890534842005E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.6355145999683466E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.718817236260635E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.2862696489712372E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.3886407771377742E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8890622076086456E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.7644164635798421E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-53CD-4BB6-B5E9-2D6673A7FDC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Intervalos finales productores'!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>META</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Intervalos finales productores'!$H$4:$H$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-53CD-4BB6-B5E9-2D6673A7FDC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:axId val="475827928"/>
-        <c:axId val="475828256"/>
-      </c:stockChart>
-      <c:catAx>
-        <c:axId val="475827928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="475828256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="475828256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="475827928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>EXIGENTES</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:stockChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Intervalos finales productores'!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inferior</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Intervalos finales productores'!$E$4:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>1.8464555865077115E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5488285801558477E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1339404543395446E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5405554786504858E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.861410975446065E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.411553244548692E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9928097326246008E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4499390410438795E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6996802499655517E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.2465822272314102E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7855731346684065E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2528171559232359E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2653342394252984E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5992626733667414E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.958287330209485E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9443783600047393E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.740227397717109E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.0512659653128429E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.3392021204187206E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.4631815168728801E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.8071113181189591E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.9362577136936565E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5933966830937729E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.1819024573725199E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.7609709574213444E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.6828883816560012E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.4545521517898785E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4372543362244148E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.047231807107976E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.4586274342798577E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.8882110810163E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.3183749251233294E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.7782747633616647E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.3647336399046694E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.0786124867182627E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.3542555230794737E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.6988720462365881E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.7368542718371405E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.5697641157323194E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.5933966830937729E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.9738379125890493E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.1714556779486527E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.740227397717109E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.861410975446065E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.937733763323457E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.4858957604453216E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.0474878538684349E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.3780909163713004E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B4C0-4DF0-A574-6CBBE151DFF6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Intervalos finales productores'!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Superior</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Intervalos finales productores'!$F$4:$F$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>6.6502590428620278E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7478812792070991E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0131485534768455E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3168264260430854E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9055701752429751E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9865880475373505E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3390765979019546E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6556371699174315E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.894964882288637E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.4324485196669464E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4652583497444871E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.490340907495977E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.10502449496865905</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.3574655205062849E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.0054134380961979E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.7463724666055731E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.6350813646779553E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.6330936165841884E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.5607521931984768E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.9641027899044961E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.4751367704510057E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.0971522858486522E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.537644217549683E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.5897816608143996E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.3096590804953648E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.4186838650892623E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.1445980706064643E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.8977307187676487E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.0845626424668862E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.4857754252320987E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.3986217274952807E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.5358889203911186E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.093857077439485E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.2589900693957065E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.2894482434461677E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.6574956178320581E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.6797412621892994E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.0850251608887726E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.2772924700858946E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.1452882234430183E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.12362510477764389</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.12065692298419085</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.6880919492669391E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.3027114078755473E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.7614089485154246E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.5692966787837093E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.8301445094402512E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9.8112121407240391E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B4C0-4DF0-A574-6CBBE151DFF6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Intervalos finales productores'!$D$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>exigente </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Intervalos finales productores'!$D$56:$D$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>4.2483573146848697E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1483549296814734E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5735445039081951E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9286909523467856E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3834905753445201E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.1990706460430212E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6659431652632773E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0527881054806555E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.797322566127094E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8395153734491783E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1254157422064471E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8715790317096065E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.3838918681456025E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9783640969365132E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.9818503841528415E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.3453754133051562E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.6876543811975318E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.8421797909485156E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.1973362026201744E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.2136421533886877E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.6411240442849824E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.0167049997711544E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.5655204503217283E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.8858420590934598E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.1428780881187496E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.0507861233726317E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.2995751111981714E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.6674925274960317E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.2446429115888423E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9722014297559782E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.6434164042557907E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.7338632064517258E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.4360659204005748E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.811861854650188E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.598654746058997E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5058755704557659E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6893066542129441E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.9109397163629565E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.4235282929091074E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.3693424532683956E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.1681741951767186E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.1185739881838683E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.2141596734920244E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.0820611916608062E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.8495713559194408E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.0275962196145154E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.4388161816543431E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.0946515285476698E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B4C0-4DF0-A574-6CBBE151DFF6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Intervalos finales productores'!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>META</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Intervalos finales productores'!$H$4:$H$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B4C0-4DF0-A574-6CBBE151DFF6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:axId val="484270536"/>
-        <c:axId val="484271192"/>
-      </c:stockChart>
-      <c:catAx>
-        <c:axId val="484270536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="484271192"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="484271192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="484270536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7451,80 +5411,6 @@
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -8073,1046 +5959,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9150,80 +5996,80 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9221</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518F2B33-B278-41CD-B783-BAF0DF668451}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="571500"/>
+          <a:ext cx="5086350" cy="3057221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>9221</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D841478-8555-429C-BA9A-22068B91A605}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="3619500"/>
+          <a:ext cx="5086350" cy="3057221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9239,6 +6085,8 @@
       <sheetName val="porcentaje de mortalidad"/>
       <sheetName val="regiones de credibilidad bin"/>
       <sheetName val="Intervalos finales productores"/>
+      <sheetName val="Hoja5"/>
+      <sheetName val="Hoja6"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -10473,6 +7321,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10739,510 +7589,6 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="44546A"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E7E6E6"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="5B9BD5"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="ED7D31"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="A5A5A5"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="FFC000"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4472C4"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="70AD47"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0563C1"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="954F72"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="44546A"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E7E6E6"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="5B9BD5"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="ED7D31"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="A5A5A5"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="FFC000"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4472C4"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="70AD47"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0563C1"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="954F72"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
@@ -14153,7 +10499,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19564,17 +15910,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/propuesta fundemerca.xlsx
+++ b/propuesta fundemerca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Intervalos propuestos" sheetId="6" r:id="rId4"/>
     <sheet name="Intervalos Generados" sheetId="4" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="67">
   <si>
     <t>Cód</t>
   </si>
@@ -227,6 +224,12 @@
   <si>
     <t>Superior</t>
   </si>
+  <si>
+    <t>CENTRO FLE.</t>
+  </si>
+  <si>
+    <t>CENTRO EXI.</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -288,6 +291,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,6 +371,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -565,10 +570,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5337,6 +5342,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5403,7 +5409,1648 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>INTERVALOS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> FLEXIBLES</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$S$2:$S$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D9F-4637-A581-ABEDB555B7ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$T$2:$T$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D9F-4637-A581-ABEDB555B7ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$W$2:$W$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D9F-4637-A581-ABEDB555B7ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="1327807487"/>
+        <c:axId val="1327804575"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="1327807487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1327804575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1327804575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1327807487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>INTERVALOS EXIGENTES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$U$2:$U$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFC1-47C7-8963-CDD938B3623E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$V$2:$V$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFC1-47C7-8963-CDD938B3623E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$X$2:$X$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFC1-47C7-8963-CDD938B3623E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="1299014527"/>
+        <c:axId val="1299012031"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="1299014527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1299012031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1299012031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1299014527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5959,6 +7606,1046 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6075,1257 +8762,69 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="cantidad inicial pollos"/>
-      <sheetName val="cantidad pollos muertos"/>
-      <sheetName val="Estadisticas Descriptivas"/>
-      <sheetName val="porcentaje de mortalidad"/>
-      <sheetName val="regiones de credibilidad bin"/>
-      <sheetName val="Intervalos finales productores"/>
-      <sheetName val="Hoja5"/>
-      <sheetName val="Hoja6"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Inferior</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Superior</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Inferior</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>Superior</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>META</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>9.7788152551082606E-3</v>
-          </cell>
-          <cell r="D4">
-            <v>8.5913877215295975E-2</v>
-          </cell>
-          <cell r="E4">
-            <v>1.8464555865077115E-2</v>
-          </cell>
-          <cell r="F4">
-            <v>6.6502590428620278E-2</v>
-          </cell>
-          <cell r="H4">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1.0581631174453454E-2</v>
-          </cell>
-          <cell r="D5">
-            <v>7.9117242344121874E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>1.5488285801558477E-2</v>
-          </cell>
-          <cell r="F5">
-            <v>6.7478812792070991E-2</v>
-          </cell>
-          <cell r="H5">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>1.1754046717507276E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>6.7318606749461773E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>2.1339404543395446E-2</v>
-          </cell>
-          <cell r="F6">
-            <v>5.0131485534768455E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1.2428363815292233E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>0.10037325114945084</v>
-          </cell>
-          <cell r="E7">
-            <v>2.5405554786504858E-2</v>
-          </cell>
-          <cell r="F7">
-            <v>7.3168264260430854E-2</v>
-          </cell>
-          <cell r="H7">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>1.0020640545174228E-2</v>
-          </cell>
-          <cell r="D8">
-            <v>6.7545953319678831E-2</v>
-          </cell>
-          <cell r="E8">
-            <v>1.861410975446065E-2</v>
-          </cell>
-          <cell r="F8">
-            <v>4.9055701752429751E-2</v>
-          </cell>
-          <cell r="H8">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>1.0000451058836728E-2</v>
-          </cell>
-          <cell r="D9">
-            <v>0.11155978396773025</v>
-          </cell>
-          <cell r="E9">
-            <v>2.411553244548692E-2</v>
-          </cell>
-          <cell r="F9">
-            <v>7.9865880475373505E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>1.0466577968975184E-2</v>
-          </cell>
-          <cell r="D10">
-            <v>7.1052604365895777E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>1.9928097326246008E-2</v>
-          </cell>
-          <cell r="F10">
-            <v>5.3390765979019546E-2</v>
-          </cell>
-          <cell r="H10">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>4.2810853173733503E-3</v>
-          </cell>
-          <cell r="D11">
-            <v>6.3201112315604324E-2</v>
-          </cell>
-          <cell r="E11">
-            <v>1.4499390410438795E-2</v>
-          </cell>
-          <cell r="F11">
-            <v>4.6556371699174315E-2</v>
-          </cell>
-          <cell r="H11">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>8.8405081358488655E-3</v>
-          </cell>
-          <cell r="D12">
-            <v>7.7382290388109842E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>1.6996802499655517E-2</v>
-          </cell>
-          <cell r="F12">
-            <v>5.894964882288637E-2</v>
-          </cell>
-          <cell r="H12">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>2.180265033409368E-2</v>
-          </cell>
-          <cell r="D13">
-            <v>8.3753696224667773E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>4.2465822272314102E-2</v>
-          </cell>
-          <cell r="F13">
-            <v>5.4324485196669464E-2</v>
-          </cell>
-          <cell r="H13">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>1.3798118951068071E-2</v>
-          </cell>
-          <cell r="D14">
-            <v>5.5245988168233229E-2</v>
-          </cell>
-          <cell r="E14">
-            <v>2.7855731346684065E-2</v>
-          </cell>
-          <cell r="F14">
-            <v>3.4652583497444871E-2</v>
-          </cell>
-          <cell r="H14">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>5.503385333038859E-3</v>
-          </cell>
-          <cell r="D15">
-            <v>8.4120639177866163E-2</v>
-          </cell>
-          <cell r="E15">
-            <v>1.2528171559232359E-2</v>
-          </cell>
-          <cell r="F15">
-            <v>6.490340907495977E-2</v>
-          </cell>
-          <cell r="H15">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>1.6969719322400365E-2</v>
-          </cell>
-          <cell r="D16">
-            <v>0.11789028780157729</v>
-          </cell>
-          <cell r="E16">
-            <v>2.2653342394252984E-2</v>
-          </cell>
-          <cell r="F16">
-            <v>0.10502449496865905</v>
-          </cell>
-          <cell r="H16">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>7.2068855356824868E-3</v>
-          </cell>
-          <cell r="D17">
-            <v>7.7327671070721693E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>1.5992626733667414E-2</v>
-          </cell>
-          <cell r="F17">
-            <v>6.3574655205062849E-2</v>
-          </cell>
-          <cell r="H17">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>1.506489837461525E-2</v>
-          </cell>
-          <cell r="D18">
-            <v>6.996780784975043E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>1.958287330209485E-2</v>
-          </cell>
-          <cell r="F18">
-            <v>6.0054134380961979E-2</v>
-          </cell>
-          <cell r="H18">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>1.0997091196700955E-2</v>
-          </cell>
-          <cell r="D19">
-            <v>0.10238673742963478</v>
-          </cell>
-          <cell r="E19">
-            <v>1.9443783600047393E-2</v>
-          </cell>
-          <cell r="F19">
-            <v>8.7463724666055731E-2</v>
-          </cell>
-          <cell r="H19">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>5.8420455287964152E-3</v>
-          </cell>
-          <cell r="D20">
-            <v>7.4432235631596733E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>1.740227397717109E-2</v>
-          </cell>
-          <cell r="F20">
-            <v>5.6350813646779553E-2</v>
-          </cell>
-          <cell r="H20">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>9.3460181046352338E-3</v>
-          </cell>
-          <cell r="D21">
-            <v>0.10313654794550842</v>
-          </cell>
-          <cell r="E21">
-            <v>2.0512659653128429E-2</v>
-          </cell>
-          <cell r="F21">
-            <v>7.6330936165841884E-2</v>
-          </cell>
-          <cell r="H21">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>1.3265827355353501E-3</v>
-          </cell>
-          <cell r="D22">
-            <v>5.7705555294467747E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>8.3392021204187206E-3</v>
-          </cell>
-          <cell r="F22">
-            <v>9.5607521931984768E-2</v>
-          </cell>
-          <cell r="H22">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>3.4027250530356758E-3</v>
-          </cell>
-          <cell r="D23">
-            <v>7.054415466789421E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>1.4631815168728801E-2</v>
-          </cell>
-          <cell r="F23">
-            <v>4.9641027899044961E-2</v>
-          </cell>
-          <cell r="H23">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>9.4870021380749694E-3</v>
-          </cell>
-          <cell r="D24">
-            <v>6.357589266390129E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>1.8071113181189591E-2</v>
-          </cell>
-          <cell r="F24">
-            <v>5.4751367704510057E-2</v>
-          </cell>
-          <cell r="H24">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>9.9824077603693131E-3</v>
-          </cell>
-          <cell r="D25">
-            <v>0.10493368403602865</v>
-          </cell>
-          <cell r="E25">
-            <v>1.9362577136936565E-2</v>
-          </cell>
-          <cell r="F25">
-            <v>8.0971522858486522E-2</v>
-          </cell>
-          <cell r="H25">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>7.9580120086738468E-3</v>
-          </cell>
-          <cell r="D26">
-            <v>7.6702967402606625E-2</v>
-          </cell>
-          <cell r="E26">
-            <v>1.5933966830937729E-2</v>
-          </cell>
-          <cell r="F26">
-            <v>5.537644217549683E-2</v>
-          </cell>
-          <cell r="H26">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>1.6867875816285214E-2</v>
-          </cell>
-          <cell r="D27">
-            <v>6.4783418224861333E-2</v>
-          </cell>
-          <cell r="E27">
-            <v>2.1819024573725199E-2</v>
-          </cell>
-          <cell r="F27">
-            <v>5.5897816608143996E-2</v>
-          </cell>
-          <cell r="H27">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>6.2849933142418673E-4</v>
-          </cell>
-          <cell r="D28">
-            <v>9.330641917543625E-2</v>
-          </cell>
-          <cell r="E28">
-            <v>9.7609709574213444E-3</v>
-          </cell>
-          <cell r="F28">
-            <v>7.3096590804953648E-2</v>
-          </cell>
-          <cell r="H28">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>1.4220173564151612E-2</v>
-          </cell>
-          <cell r="D29">
-            <v>0.10067736645664904</v>
-          </cell>
-          <cell r="E29">
-            <v>2.6828883816560012E-2</v>
-          </cell>
-          <cell r="F29">
-            <v>7.4186838650892623E-2</v>
-          </cell>
-          <cell r="H29">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>7.0955613625522732E-3</v>
-          </cell>
-          <cell r="D30">
-            <v>9.1460393991038336E-2</v>
-          </cell>
-          <cell r="E30">
-            <v>1.4545521517898785E-2</v>
-          </cell>
-          <cell r="F30">
-            <v>7.1445980706064643E-2</v>
-          </cell>
-          <cell r="H30">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>1.4035753845365116E-2</v>
-          </cell>
-          <cell r="D31">
-            <v>8.9076258183104939E-2</v>
-          </cell>
-          <cell r="E31">
-            <v>2.4372543362244148E-2</v>
-          </cell>
-          <cell r="F31">
-            <v>6.8977307187676487E-2</v>
-          </cell>
-          <cell r="H31">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>1.4979976844291159E-3</v>
-          </cell>
-          <cell r="D32">
-            <v>7.3365474637230421E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>4.047231807107976E-3</v>
-          </cell>
-          <cell r="F32">
-            <v>6.0845626424668862E-2</v>
-          </cell>
-          <cell r="H32">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>7.1155165317512842E-3</v>
-          </cell>
-          <cell r="D33">
-            <v>8.4062077258677426E-2</v>
-          </cell>
-          <cell r="E33">
-            <v>1.4586274342798577E-2</v>
-          </cell>
-          <cell r="F33">
-            <v>6.4857754252320987E-2</v>
-          </cell>
-          <cell r="H33">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>1.0466787871979192E-2</v>
-          </cell>
-          <cell r="D34">
-            <v>7.2837734257360953E-2</v>
-          </cell>
-          <cell r="E34">
-            <v>1.8882110810163E-2</v>
-          </cell>
-          <cell r="F34">
-            <v>5.3986217274952807E-2</v>
-          </cell>
-          <cell r="H34">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>3.0867700627293417E-3</v>
-          </cell>
-          <cell r="D35">
-            <v>6.4569622773026247E-2</v>
-          </cell>
-          <cell r="E35">
-            <v>9.3183749251233294E-3</v>
-          </cell>
-          <cell r="F35">
-            <v>4.5358889203911186E-2</v>
-          </cell>
-          <cell r="H35">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>1.0595299369769424E-2</v>
-          </cell>
-          <cell r="D36">
-            <v>0.10933469277531627</v>
-          </cell>
-          <cell r="E36">
-            <v>1.7782747633616647E-2</v>
-          </cell>
-          <cell r="F36">
-            <v>9.093857077439485E-2</v>
-          </cell>
-          <cell r="H36">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>6.573168907624995E-3</v>
-          </cell>
-          <cell r="D37">
-            <v>5.8032760806448258E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>1.3647336399046694E-2</v>
-          </cell>
-          <cell r="F37">
-            <v>4.2589900693957065E-2</v>
-          </cell>
-          <cell r="H37">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>3.4699745082761991E-3</v>
-          </cell>
-          <cell r="D38">
-            <v>8.2622259618890914E-2</v>
-          </cell>
-          <cell r="E38">
-            <v>9.0786124867182627E-3</v>
-          </cell>
-          <cell r="F38">
-            <v>6.2894482434461677E-2</v>
-          </cell>
-          <cell r="H38">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>1.3236475204520384E-2</v>
-          </cell>
-          <cell r="D39">
-            <v>7.3021956893641549E-2</v>
-          </cell>
-          <cell r="E39">
-            <v>2.3542555230794737E-2</v>
-          </cell>
-          <cell r="F39">
-            <v>4.6574956178320581E-2</v>
-          </cell>
-          <cell r="H39">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>1.1334534236819788E-2</v>
-          </cell>
-          <cell r="D40">
-            <v>6.9639356455248547E-2</v>
-          </cell>
-          <cell r="E40">
-            <v>1.6988720462365881E-2</v>
-          </cell>
-          <cell r="F40">
-            <v>5.6797412621892994E-2</v>
-          </cell>
-          <cell r="H40">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>1.134472959163948E-2</v>
-          </cell>
-          <cell r="D41">
-            <v>7.3593805482852104E-2</v>
-          </cell>
-          <cell r="E41">
-            <v>1.7368542718371405E-2</v>
-          </cell>
-          <cell r="F41">
-            <v>6.0850251608887726E-2</v>
-          </cell>
-          <cell r="H41">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>1.0085502919607348E-2</v>
-          </cell>
-          <cell r="D42">
-            <v>6.4532134057117663E-2</v>
-          </cell>
-          <cell r="E42">
-            <v>1.5697641157323194E-2</v>
-          </cell>
-          <cell r="F42">
-            <v>5.2772924700858946E-2</v>
-          </cell>
-          <cell r="H42">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>7.9580120086738468E-3</v>
-          </cell>
-          <cell r="D43">
-            <v>0.11411080486394343</v>
-          </cell>
-          <cell r="E43">
-            <v>1.5933966830937729E-2</v>
-          </cell>
-          <cell r="F43">
-            <v>9.1452882234430183E-2</v>
-          </cell>
-          <cell r="H43">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>1.5331462364387463E-2</v>
-          </cell>
-          <cell r="D44">
-            <v>0.13482718113142067</v>
-          </cell>
-          <cell r="E44">
-            <v>1.9738379125890493E-2</v>
-          </cell>
-          <cell r="F44">
-            <v>0.12362510477764389</v>
-          </cell>
-          <cell r="H44">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>1.7600948455265265E-2</v>
-          </cell>
-          <cell r="D45">
-            <v>0.13037483261441873</v>
-          </cell>
-          <cell r="E45">
-            <v>2.1714556779486527E-2</v>
-          </cell>
-          <cell r="F45">
-            <v>0.12065692298419085</v>
-          </cell>
-          <cell r="H45">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>9.1343993354656428E-3</v>
-          </cell>
-          <cell r="D46">
-            <v>6.357589266390129E-2</v>
-          </cell>
-          <cell r="E46">
-            <v>1.740227397717109E-2</v>
-          </cell>
-          <cell r="F46">
-            <v>4.6880919492669391E-2</v>
-          </cell>
-          <cell r="H46">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>1.0020640545174228E-2</v>
-          </cell>
-          <cell r="D47">
-            <v>0.10435570418003848</v>
-          </cell>
-          <cell r="E47">
-            <v>1.861410975446065E-2</v>
-          </cell>
-          <cell r="F47">
-            <v>8.3027114078755473E-2</v>
-          </cell>
-          <cell r="H47">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>8.8259638969281715E-3</v>
-          </cell>
-          <cell r="D48">
-            <v>5.6899429082496567E-2</v>
-          </cell>
-          <cell r="E48">
-            <v>1.937733763323457E-2</v>
-          </cell>
-          <cell r="F48">
-            <v>3.7614089485154246E-2</v>
-          </cell>
-          <cell r="H48">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>9.1304019438005219E-3</v>
-          </cell>
-          <cell r="D49">
-            <v>7.8642413598954963E-2</v>
-          </cell>
-          <cell r="E49">
-            <v>1.4858957604453216E-2</v>
-          </cell>
-          <cell r="F49">
-            <v>6.5692966787837093E-2</v>
-          </cell>
-          <cell r="H49">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>1.1112430356061909E-2</v>
-          </cell>
-          <cell r="D50">
-            <v>6.6668813796111004E-2</v>
-          </cell>
-          <cell r="E50">
-            <v>2.0474878538684349E-2</v>
-          </cell>
-          <cell r="F50">
-            <v>4.8301445094402512E-2</v>
-          </cell>
-          <cell r="H50">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>1.2389613390461286E-2</v>
-          </cell>
-          <cell r="D51">
-            <v>0.12289871588113555</v>
-          </cell>
-          <cell r="E51">
-            <v>2.3780909163713004E-2</v>
-          </cell>
-          <cell r="F51">
-            <v>9.8112121407240391E-2</v>
-          </cell>
-          <cell r="H51">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>flexible</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v xml:space="preserve">exigente </v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>4.784634623520212E-2</v>
-          </cell>
-          <cell r="D56">
-            <v>4.2483573146848697E-2</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>4.4849436759287667E-2</v>
-          </cell>
-          <cell r="D57">
-            <v>4.1483549296814734E-2</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>3.9536326733484527E-2</v>
-          </cell>
-          <cell r="D58">
-            <v>3.5735445039081951E-2</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>5.6400807482371536E-2</v>
-          </cell>
-          <cell r="D59">
-            <v>4.9286909523467856E-2</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>3.8783296932426527E-2</v>
-          </cell>
-          <cell r="D60">
-            <v>3.3834905753445201E-2</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>6.0780117513283494E-2</v>
-          </cell>
-          <cell r="D61">
-            <v>5.1990706460430212E-2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>4.075959116743548E-2</v>
-          </cell>
-          <cell r="D62">
-            <v>3.6659431652632773E-2</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>3.3741098816488839E-2</v>
-          </cell>
-          <cell r="D63">
-            <v>3.0527881054806555E-2</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>4.3111399261979357E-2</v>
-          </cell>
-          <cell r="D64">
-            <v>3.797322566127094E-2</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>5.2778173279380725E-2</v>
-          </cell>
-          <cell r="D65">
-            <v>4.8395153734491783E-2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>3.4522053559650649E-2</v>
-          </cell>
-          <cell r="D66">
-            <v>3.1254157422064471E-2</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>4.4812012255452512E-2</v>
-          </cell>
-          <cell r="D67">
-            <v>3.8715790317096065E-2</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>6.7430003561988833E-2</v>
-          </cell>
-          <cell r="D68">
-            <v>6.3838918681456025E-2</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>4.2267278303202087E-2</v>
-          </cell>
-          <cell r="D69">
-            <v>3.9783640969365132E-2</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>4.2516353112182839E-2</v>
-          </cell>
-          <cell r="D70">
-            <v>3.9818503841528415E-2</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>5.6691914313167863E-2</v>
-          </cell>
-          <cell r="D71">
-            <v>5.3453754133051562E-2</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>4.0137140580196573E-2</v>
-          </cell>
-          <cell r="D72">
-            <v>3.6876543811975318E-2</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>5.6241283025071823E-2</v>
-          </cell>
-          <cell r="D73">
-            <v>4.8421797909485156E-2</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>2.9516069015001548E-2</v>
-          </cell>
-          <cell r="D74">
-            <v>5.1973362026201744E-2</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>3.6973439860464946E-2</v>
-          </cell>
-          <cell r="D75">
-            <v>3.2136421533886877E-2</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>3.6531447400988126E-2</v>
-          </cell>
-          <cell r="D76">
-            <v>3.6411240442849824E-2</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>5.745804589819898E-2</v>
-          </cell>
-          <cell r="D77">
-            <v>5.0167049997711544E-2</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>4.233048970564024E-2</v>
-          </cell>
-          <cell r="D78">
-            <v>3.5655204503217283E-2</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>4.0825647020573272E-2</v>
-          </cell>
-          <cell r="D79">
-            <v>3.8858420590934598E-2</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>4.6967459253430217E-2</v>
-          </cell>
-          <cell r="D80">
-            <v>4.1428780881187496E-2</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>5.744877001040033E-2</v>
-          </cell>
-          <cell r="D81">
-            <v>5.0507861233726317E-2</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>4.9277977676795301E-2</v>
-          </cell>
-          <cell r="D82">
-            <v>4.2995751111981714E-2</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>5.1556006014235031E-2</v>
-          </cell>
-          <cell r="D83">
-            <v>4.6674925274960317E-2</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>3.7431736160829766E-2</v>
-          </cell>
-          <cell r="D84">
-            <v>3.2446429115888423E-2</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>4.5588796895214355E-2</v>
-          </cell>
-          <cell r="D85">
-            <v>3.9722014297559782E-2</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>4.1652261064670071E-2</v>
-          </cell>
-          <cell r="D86">
-            <v>3.6434164042557907E-2</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>3.3828196417877793E-2</v>
-          </cell>
-          <cell r="D87">
-            <v>2.7338632064517258E-2</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>5.9964996072542846E-2</v>
-          </cell>
-          <cell r="D88">
-            <v>5.4360659204005748E-2</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>3.2302964857036626E-2</v>
-          </cell>
-          <cell r="D89">
-            <v>2.811861854650188E-2</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>4.3046117063583557E-2</v>
-          </cell>
-          <cell r="D90">
-            <v>3.598654746058997E-2</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>4.3129216049080966E-2</v>
-          </cell>
-          <cell r="D91">
-            <v>3.5058755704557659E-2</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>4.048694534603417E-2</v>
-          </cell>
-          <cell r="D92">
-            <v>3.6893066542129441E-2</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>4.2469267537245795E-2</v>
-          </cell>
-          <cell r="D93">
-            <v>3.9109397163629565E-2</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>3.7308818488362504E-2</v>
-          </cell>
-          <cell r="D94">
-            <v>3.4235282929091074E-2</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>6.103440843630864E-2</v>
-          </cell>
-          <cell r="D95">
-            <v>5.3693424532683956E-2</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>7.5079321747904063E-2</v>
-          </cell>
-          <cell r="D96">
-            <v>7.1681741951767186E-2</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>7.3987890534842005E-2</v>
-          </cell>
-          <cell r="D97">
-            <v>7.1185739881838683E-2</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>3.6355145999683466E-2</v>
-          </cell>
-          <cell r="D98">
-            <v>3.2141596734920244E-2</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99">
-            <v>5.718817236260635E-2</v>
-          </cell>
-          <cell r="D99">
-            <v>5.0820611916608062E-2</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>3.2862696489712372E-2</v>
-          </cell>
-          <cell r="D100">
-            <v>2.8495713559194408E-2</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>4.3886407771377742E-2</v>
-          </cell>
-          <cell r="D101">
-            <v>4.0275962196145154E-2</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102">
-            <v>3.8890622076086456E-2</v>
-          </cell>
-          <cell r="D102">
-            <v>3.4388161816543431E-2</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="C103">
-            <v>6.7644164635798421E-2</v>
-          </cell>
-          <cell r="D103">
-            <v>6.0946515285476698E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7594,7 +9093,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C3" sqref="C3:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8052,7 +9551,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C3" sqref="C3:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8597,11 +10096,13 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0.02</v>
-      </c>
-      <c r="D3">
-        <v>0.04</v>
+      <c r="C3" t="str">
+        <f>IFERROR(Muertes!C3/'Cantidad inicial'!C3,"")</f>
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <f>IFERROR(Muertes!D3/'Cantidad inicial'!D3,"")</f>
+        <v/>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(Muertes!E3/'Cantidad inicial'!E3,"")</f>
@@ -10498,7 +11999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
@@ -10510,14 +12011,14 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
@@ -11614,14 +13115,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -11631,48 +13133,52 @@
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="7" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="8" t="s">
+      <c r="T1" s="8"/>
+      <c r="U1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -11761,6 +13267,14 @@
         <f>MIN(D2,F2,H2,J2,N2,R2,P2,R2)</f>
         <v>8.6362867945887989E-2</v>
       </c>
+      <c r="W2">
+        <f>(S2+T2)/2</f>
+        <v>8.3573223098456648E-2</v>
+      </c>
+      <c r="X2">
+        <f>(U2+V2)/2</f>
+        <v>6.8439644419953677E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -11849,6 +13363,14 @@
         <f t="shared" ref="V3:V49" si="3">MIN(D3,F3,H3,J3,N3,R3,P3,R3)</f>
         <v>0</v>
       </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W49" si="4">(S3+T3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X49" si="5">(U3+V3)/2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -11937,6 +13459,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -12025,6 +13555,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -12113,6 +13651,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -12201,6 +13747,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -12289,6 +13843,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -12377,6 +13939,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -12465,6 +14035,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -12553,6 +14131,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -12641,6 +14227,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -12729,6 +14323,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -12817,6 +14419,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -12905,6 +14515,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="W15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -12993,8 +14611,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -13081,8 +14707,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -13169,8 +14803,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -13257,8 +14899,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -13345,8 +14995,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -13433,8 +15091,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -13521,8 +15187,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -13609,8 +15283,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -13697,8 +15379,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -13785,8 +15475,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -13873,8 +15571,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -13961,8 +15667,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -14049,8 +15763,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -14137,8 +15859,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -14225,8 +15955,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -14313,8 +16051,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -14401,8 +16147,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -14489,8 +16243,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -14577,8 +16339,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -14665,8 +16435,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -14753,8 +16531,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -14841,8 +16627,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -14929,8 +16723,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -15017,8 +16819,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -15105,8 +16915,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -15193,8 +17011,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -15281,8 +17107,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -15369,8 +17203,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -15457,8 +17299,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -15545,8 +17395,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -15633,8 +17491,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -15721,8 +17587,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -15809,8 +17683,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -15897,8 +17779,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C50" t="str">
         <f>IF(Muertes!C50="","",GAMMAINV(0.025,Muertes!C50+(1/2),1))</f>
         <v/>
@@ -15909,10 +17799,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -15923,5 +17812,6 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/propuesta fundemerca.xlsx
+++ b/propuesta fundemerca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="2" r:id="rId1"/>
@@ -351,19 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,18 +359,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="4">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -398,146 +400,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -15831,7 +15693,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16245,7 +16106,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22127,87 +21987,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9221</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7200900" y="571500"/>
-          <a:ext cx="5086350" cy="3057221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9221</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7200900" y="3619500"/>
-          <a:ext cx="5086350" cy="3057221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -22537,7 +22316,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:J49"/>
     </sheetView>
   </sheetViews>
@@ -24589,8 +24368,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J49"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26565,7 +26344,7 @@
         <v>240</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" ref="D50:K50" si="4">SUM(D2:D49)</f>
+        <f t="shared" ref="D50:J50" si="4">SUM(D2:D49)</f>
         <v>96</v>
       </c>
       <c r="E50" s="6">
@@ -26602,7 +26381,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" ref="D51:K51" si="5">AVERAGE(D2:D49)</f>
+        <f t="shared" ref="D51:J51" si="5">AVERAGE(D2:D49)</f>
         <v>2</v>
       </c>
       <c r="E51" s="6">
@@ -26641,7 +26420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -26662,12 +26441,12 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -26706,130 +26485,130 @@
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <f>MIN('Cantidad inicial'!C2:C49)</f>
         <v>100</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <f>MIN('Cantidad inicial'!D2:D49)</f>
         <v>80</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <f>MIN('Cantidad inicial'!E2:E49)</f>
         <v>90</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <f>MIN('Cantidad inicial'!F2:F49)</f>
         <v>85</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <f>MIN('Cantidad inicial'!G2:G49)</f>
         <v>95</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <f>MIN('Cantidad inicial'!H2:H49)</f>
         <v>105</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="9">
         <f>MIN('Cantidad inicial'!I2:I49)</f>
         <v>110</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <f>MIN('Cantidad inicial'!J2:J49)</f>
         <v>79</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <f>AVERAGE('Cantidad inicial'!C2:C49)</f>
         <v>100</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <f>AVERAGE('Cantidad inicial'!D2:D49)</f>
         <v>80</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>AVERAGE('Cantidad inicial'!E2:E49)</f>
         <v>90</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <f>AVERAGE('Cantidad inicial'!F2:F49)</f>
         <v>85</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <f>AVERAGE('Cantidad inicial'!G2:G49)</f>
         <v>95</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="9">
         <f>AVERAGE('Cantidad inicial'!H2:H49)</f>
         <v>105</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="9">
         <f>AVERAGE('Cantidad inicial'!I2:I49)</f>
         <v>110</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="9">
         <f>AVERAGE('Cantidad inicial'!J2:J49)</f>
         <v>79</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <f>MAX('Cantidad inicial'!C2:C49)</f>
         <v>100</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <f>MAX('Cantidad inicial'!D2:D49)</f>
         <v>80</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <f>MAX('Cantidad inicial'!E2:E49)</f>
         <v>90</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <f>MAX('Cantidad inicial'!F2:F49)</f>
         <v>85</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <f>MAX('Cantidad inicial'!G2:G49)</f>
         <v>95</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <f>MAX('Cantidad inicial'!H2:H49)</f>
         <v>105</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="9">
         <f>MAX('Cantidad inicial'!I2:I49)</f>
         <v>110</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <f>MAX('Cantidad inicial'!J2:J49)</f>
         <v>79</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -26878,44 +26657,44 @@
       <c r="A8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <f>SUM('Cantidad inicial'!C2:C49)</f>
         <v>4800</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <f>SUM('Cantidad inicial'!D2:D49)</f>
         <v>3840</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <f>SUM('Cantidad inicial'!E2:E49)</f>
         <v>4320</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <f>SUM('Cantidad inicial'!F2:F49)</f>
         <v>4080</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <f>SUM('Cantidad inicial'!G2:G49)</f>
         <v>4560</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="9">
         <f>SUM('Cantidad inicial'!H2:H49)</f>
         <v>5040</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="9">
         <f>SUM('Cantidad inicial'!I2:I49)</f>
         <v>5280</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <f>SUM('Cantidad inicial'!J2:J49)</f>
         <v>3792</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -26978,21 +26757,21 @@
       <c r="O10" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -27031,130 +26810,130 @@
       <c r="A15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <f>MIN(Muertes!C2:C49)</f>
         <v>5</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="9">
         <f>MIN(Muertes!D2:D49)</f>
         <v>2</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <f>MIN(Muertes!E2:E49)</f>
         <v>6</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="9">
         <f>MIN(Muertes!F2:F49)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="9">
         <f>MIN(Muertes!G2:G49)</f>
         <v>8</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="9">
         <f>MIN(Muertes!H2:H49)</f>
         <v>9</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="9">
         <f>MIN(Muertes!I2:I49)</f>
         <v>10</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="9">
         <f>MIN(Muertes!J2:J49)</f>
         <v>3</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <f>AVERAGE(Muertes!C2:C49)</f>
         <v>5</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="9">
         <f>AVERAGE(Muertes!D2:D49)</f>
         <v>2</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <f>AVERAGE(Muertes!E2:E49)</f>
         <v>6</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="9">
         <f>AVERAGE(Muertes!F2:F49)</f>
         <v>4</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="9">
         <f>AVERAGE(Muertes!G2:G49)</f>
         <v>8</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="9">
         <f>AVERAGE(Muertes!H2:H49)</f>
         <v>9</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="9">
         <f>AVERAGE(Muertes!I2:I49)</f>
         <v>10</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="9">
         <f>AVERAGE(Muertes!J2:J49)</f>
         <v>3</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <f>MAX(Muertes!C2:C49)</f>
         <v>5</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <f>MAX(Muertes!D2:D49)</f>
         <v>2</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="9">
         <f>MAX(Muertes!E2:E49)</f>
         <v>6</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="9">
         <f>MAX(Muertes!F2:F49)</f>
         <v>4</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="9">
         <f>MAX(Muertes!G2:G49)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="9">
         <f>MAX(Muertes!H2:H49)</f>
         <v>9</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="9">
         <f>MAX(Muertes!I2:I49)</f>
         <v>10</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="9">
         <f>MAX(Muertes!J2:J49)</f>
         <v>3</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -27203,44 +26982,44 @@
       <c r="A19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="9">
         <f>SUM(Muertes!C2:C49)</f>
         <v>240</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <f>SUM(Muertes!D2:D49)</f>
         <v>96</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="9">
         <f>SUM(Muertes!E2:E49)</f>
         <v>288</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="9">
         <f>SUM(Muertes!F2:F49)</f>
         <v>192</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="9">
         <f>SUM(Muertes!G2:G49)</f>
         <v>384</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="9">
         <f>SUM(Muertes!H2:H49)</f>
         <v>432</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="9">
         <f>SUM(Muertes!I2:I49)</f>
         <v>480</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="9">
         <f>SUM(Muertes!J2:J49)</f>
         <v>144</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -27298,7 +27077,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
@@ -27352,7 +27131,7 @@
       <c r="M1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>79</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -30438,39 +30217,39 @@
       <c r="B50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="8">
         <f>AVERAGE(C2:C49)</f>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="8">
         <f t="shared" ref="D50:J50" si="6">AVERAGE(D2:D49)</f>
         <v>2.4999999999999994E-2</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="8">
         <f t="shared" si="6"/>
         <v>6.6666666666666735E-2</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="8">
         <f t="shared" si="6"/>
         <v>4.7058823529411785E-2</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="8">
         <f t="shared" si="6"/>
         <v>8.4210526315789402E-2</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="8">
         <f t="shared" si="6"/>
         <v>8.5714285714285757E-2</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="8">
         <f t="shared" si="6"/>
         <v>9.090909090909087E-2</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="8">
         <f t="shared" si="6"/>
         <v>3.7974683544303785E-2</v>
       </c>
-      <c r="K50" s="11"/>
+      <c r="K50" s="8"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -30665,16 +30444,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C50:K50">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K49">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>"0.05"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30684,8 +30463,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{F0E5EDA9-07DA-4AB7-BE05-20B60A455445}">
-            <xm:f>C2&gt;'Intervalos propuestos'!$F3</xm:f>
+          <x14:cfRule type="expression" priority="8" id="{F0E5EDA9-07DA-4AB7-BE05-20B60A455445}">
+            <xm:f>C2&gt;'Intervalos propuestos'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -30707,8 +30486,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30719,14 +30498,14 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
@@ -30762,17 +30541,16 @@
       <c r="C3" s="3">
         <v>9.7788152551082606E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>8.5913877215295975E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>1.8464555865077115E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>6.6502590428620278E-2</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -30784,17 +30562,16 @@
       <c r="C4" s="3">
         <v>1.0581631174453454E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>7.9117242344121874E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>1.5488285801558477E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>6.7478812792070991E-2</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -30806,17 +30583,16 @@
       <c r="C5" s="3">
         <v>1.1754046717507276E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>6.7318606749461773E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>2.1339404543395446E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>5.0131485534768455E-2</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -30828,17 +30604,16 @@
       <c r="C6" s="3">
         <v>1.2428363815292233E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>0.10037325114945084</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>2.5405554786504858E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>7.3168264260430854E-2</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -30850,17 +30625,16 @@
       <c r="C7" s="3">
         <v>1.0020640545174228E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>6.7545953319678831E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>1.861410975446065E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>4.9055701752429751E-2</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -30872,17 +30646,16 @@
       <c r="C8" s="3">
         <v>1.0000451058836728E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>0.11155978396773025</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>2.411553244548692E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>7.9865880475373505E-2</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -30894,17 +30667,16 @@
       <c r="C9" s="3">
         <v>1.0466577968975184E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>7.1052604365895777E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>1.9928097326246008E-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>5.3390765979019546E-2</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -30916,17 +30688,16 @@
       <c r="C10" s="3">
         <v>4.2810853173733503E-3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>6.3201112315604324E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>1.4499390410438795E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>4.6556371699174315E-2</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -30938,17 +30709,16 @@
       <c r="C11" s="3">
         <v>8.8405081358488655E-3</v>
       </c>
-      <c r="D11" s="3">
-        <v>7.7382290388109842E-2</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11">
+        <v>0.14119004715724803</v>
+      </c>
+      <c r="E11">
         <v>1.6996802499655517E-2</v>
       </c>
-      <c r="F11" s="3">
-        <v>5.894964882288637E-2</v>
+      <c r="F11">
+        <v>0.11743907636986073</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -30960,17 +30730,16 @@
       <c r="C12" s="3">
         <v>2.180265033409368E-2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>8.3753696224667773E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>4.2465822272314102E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>5.4324485196669464E-2</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -30982,17 +30751,16 @@
       <c r="C13" s="3">
         <v>1.3798118951068071E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>5.5245988168233229E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>2.7855731346684065E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>3.4652583497444871E-2</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -31004,17 +30772,16 @@
       <c r="C14" s="3">
         <v>5.503385333038859E-3</v>
       </c>
-      <c r="D14" s="3">
-        <v>8.4120639177866163E-2</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14">
+        <v>0.15441677682749588</v>
+      </c>
+      <c r="E14">
         <v>1.2528171559232359E-2</v>
       </c>
-      <c r="F14" s="3">
-        <v>6.490340907495977E-2</v>
+      <c r="F14">
+        <v>0.128872845880738</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -31026,17 +30793,16 @@
       <c r="C15" s="3">
         <v>1.6969719322400365E-2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>0.11789028780157729</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>2.2653342394252984E-2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>0.10502449496865905</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -31046,21 +30812,20 @@
         <v>14</v>
       </c>
       <c r="C16" s="3">
-        <v>7.2068855356824868E-3</v>
-      </c>
-      <c r="D16" s="3">
+        <v>1.0521720534539213E-2</v>
+      </c>
+      <c r="D16">
         <v>7.7327671070721693E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>1.5992626733667414E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>6.3574655205062849E-2</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -31068,21 +30833,20 @@
         <v>15</v>
       </c>
       <c r="C17" s="3">
-        <v>1.506489837461525E-2</v>
-      </c>
-      <c r="D17" s="3">
+        <v>1.2065222154757494E-2</v>
+      </c>
+      <c r="D17">
         <v>6.996780784975043E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>1.958287330209485E-2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>6.0054134380961979E-2</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -31090,21 +30854,20 @@
         <v>16</v>
       </c>
       <c r="C18" s="3">
-        <v>1.0997091196700955E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.10238673742963478</v>
-      </c>
-      <c r="E18" s="3">
+        <v>1.2830696306044517E-2</v>
+      </c>
+      <c r="D18">
+        <v>8.0369036165242602E-2</v>
+      </c>
+      <c r="E18">
         <v>1.9443783600047393E-2</v>
       </c>
-      <c r="F18" s="3">
-        <v>8.7463724666055731E-2</v>
+      <c r="F18">
+        <v>6.7034192539259449E-2</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -31112,21 +30875,20 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>5.8420455287964152E-3</v>
-      </c>
-      <c r="D19" s="3">
+        <v>9.1343993354656428E-3</v>
+      </c>
+      <c r="D19">
         <v>7.4432235631596733E-2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>1.740227397717109E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>5.6350813646779553E-2</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -31136,19 +30898,18 @@
       <c r="C20" s="3">
         <v>9.3460181046352338E-3</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>0.10313654794550842</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>2.0512659653128429E-2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>7.6330936165841884E-2</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -31158,19 +30919,18 @@
       <c r="C21" s="3">
         <v>1.3265827355353501E-3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>5.7705555294467747E-2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>8.3392021204187206E-3</v>
       </c>
-      <c r="F21" s="3">
-        <v>9.5607521931984768E-2</v>
+      <c r="F21">
+        <v>4.6214920629670961E-2</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -31178,21 +30938,20 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <v>3.4027250530356758E-3</v>
-      </c>
-      <c r="D22" s="3">
+        <v>1.3782054174299683E-5</v>
+      </c>
+      <c r="D22">
         <v>7.054415466789421E-2</v>
       </c>
-      <c r="E22" s="3">
-        <v>1.4631815168728801E-2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4.9641027899044961E-2</v>
+      <c r="E22">
+        <v>2.006084982533296E-3</v>
+      </c>
+      <c r="F22">
+        <v>4.8970952423400181E-2</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -31202,19 +30961,18 @@
       <c r="C23" s="3">
         <v>9.4870021380749694E-3</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>6.357589266390129E-2</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>1.8071113181189591E-2</v>
       </c>
-      <c r="F23" s="3">
-        <v>5.4751367704510057E-2</v>
+      <c r="F23">
+        <v>4.6880919492669391E-2</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -31224,19 +30982,18 @@
       <c r="C24" s="3">
         <v>9.9824077603693131E-3</v>
       </c>
-      <c r="D24" s="3">
-        <v>0.10493368403602865</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24">
+        <v>0.12247071822539768</v>
+      </c>
+      <c r="E24">
         <v>1.9362577136936565E-2</v>
       </c>
-      <c r="F24" s="3">
-        <v>8.0971522858486522E-2</v>
+      <c r="F24">
+        <v>9.7724423014538334E-2</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -31246,19 +31003,18 @@
       <c r="C25" s="3">
         <v>7.9580120086738468E-3</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>7.6702967402606625E-2</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>1.5933966830937729E-2</v>
       </c>
-      <c r="F25" s="3">
-        <v>5.537644217549683E-2</v>
+      <c r="F25">
+        <v>5.0308632478614584E-2</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -31268,19 +31024,18 @@
       <c r="C26" s="3">
         <v>1.6867875816285214E-2</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>6.4783418224861333E-2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>2.1819024573725199E-2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>5.5897816608143996E-2</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -31288,21 +31043,20 @@
         <v>25</v>
       </c>
       <c r="C27" s="3">
-        <v>6.2849933142418673E-4</v>
-      </c>
-      <c r="D27" s="3">
-        <v>9.330641917543625E-2</v>
-      </c>
-      <c r="E27" s="3">
+        <v>2.8293768220318581E-3</v>
+      </c>
+      <c r="D27">
+        <v>7.6321410568283343E-2</v>
+      </c>
+      <c r="E27">
         <v>9.7609709574213444E-3</v>
       </c>
-      <c r="F27" s="3">
-        <v>7.3096590804953648E-2</v>
+      <c r="F27">
+        <v>5.6648430365609452E-2</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -31312,19 +31066,18 @@
       <c r="C28" s="3">
         <v>1.4220173564151612E-2</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>0.10067736645664904</v>
       </c>
-      <c r="E28" s="3">
-        <v>2.6828883816560012E-2</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28">
+        <v>2.7028324269193993E-2</v>
+      </c>
+      <c r="F28">
         <v>7.4186838650892623E-2</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -31334,19 +31087,18 @@
       <c r="C29" s="3">
         <v>7.0955613625522732E-3</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>9.1460393991038336E-2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>1.4545521517898785E-2</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>7.1445980706064643E-2</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -31356,19 +31108,18 @@
       <c r="C30" s="3">
         <v>1.4035753845365116E-2</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>8.9076258183104939E-2</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>2.4372543362244148E-2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>6.8977307187676487E-2</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -31378,19 +31129,18 @@
       <c r="C31" s="3">
         <v>1.4979976844291159E-3</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>7.3365474637230421E-2</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>4.047231807107976E-3</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>6.0845626424668862E-2</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -31400,19 +31150,18 @@
       <c r="C32" s="3">
         <v>7.1155165317512842E-3</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>8.4062077258677426E-2</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>1.4586274342798577E-2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>6.4857754252320987E-2</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -31422,19 +31171,18 @@
       <c r="C33" s="3">
         <v>1.0466787871979192E-2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>7.2837734257360953E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>1.8882110810163E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>5.3986217274952807E-2</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -31444,19 +31192,18 @@
       <c r="C34" s="3">
         <v>3.0867700627293417E-3</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>6.4569622773026247E-2</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>9.3183749251233294E-3</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>4.5358889203911186E-2</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -31466,19 +31213,18 @@
       <c r="C35" s="3">
         <v>1.0595299369769424E-2</v>
       </c>
-      <c r="D35" s="3">
-        <v>0.10933469277531627</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35">
+        <v>0.11864461620810685</v>
+      </c>
+      <c r="E35">
         <v>1.7782747633616647E-2</v>
       </c>
-      <c r="F35" s="3">
-        <v>9.093857077439485E-2</v>
+      <c r="F35">
+        <v>9.9525991761323707E-2</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -31488,19 +31234,18 @@
       <c r="C36" s="3">
         <v>6.573168907624995E-3</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>5.8032760806448258E-2</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>1.3647336399046694E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>4.2589900693957065E-2</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -31510,19 +31255,18 @@
       <c r="C37" s="3">
         <v>3.4699745082761991E-3</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>8.2622259618890914E-2</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>9.0786124867182627E-3</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>6.2894482434461677E-2</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -31532,19 +31276,18 @@
       <c r="C38" s="3">
         <v>1.3236475204520384E-2</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>7.3021956893641549E-2</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>2.3542555230794737E-2</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>4.6574956178320581E-2</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -31554,19 +31297,18 @@
       <c r="C39" s="3">
         <v>1.1334534236819788E-2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>6.9639356455248547E-2</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <v>1.6988720462365881E-2</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>5.6797412621892994E-2</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -31576,19 +31318,18 @@
       <c r="C40" s="3">
         <v>1.134472959163948E-2</v>
       </c>
-      <c r="D40" s="3">
-        <v>7.3593805482852104E-2</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="D40">
+        <v>6.2293243542040022E-2</v>
+      </c>
+      <c r="E40">
         <v>1.7368542718371405E-2</v>
       </c>
-      <c r="F40" s="3">
-        <v>6.0850251608887726E-2</v>
+      <c r="F40">
+        <v>5.0356594105307885E-2</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -31598,19 +31339,18 @@
       <c r="C41" s="3">
         <v>1.0085502919607348E-2</v>
       </c>
-      <c r="D41" s="3">
-        <v>6.4532134057117663E-2</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41">
+        <v>0.12840007592700819</v>
+      </c>
+      <c r="E41">
         <v>1.5697641157323194E-2</v>
       </c>
-      <c r="F41" s="3">
-        <v>5.2772924700858946E-2</v>
+      <c r="F41">
+        <v>0.11043169002348147</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -31620,19 +31360,18 @@
       <c r="C42" s="3">
         <v>7.9580120086738468E-3</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>0.11411080486394343</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>1.5933966830937729E-2</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42">
         <v>9.1452882234430183E-2</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -31642,19 +31381,18 @@
       <c r="C43" s="3">
         <v>1.5331462364387463E-2</v>
       </c>
-      <c r="D43" s="3">
-        <v>0.13482718113142067</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43">
+        <v>8.5872048118610156E-2</v>
+      </c>
+      <c r="E43">
         <v>1.9738379125890493E-2</v>
       </c>
-      <c r="F43" s="3">
-        <v>0.12362510477764389</v>
+      <c r="F43">
+        <v>7.6746772909233318E-2</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -31664,19 +31402,18 @@
       <c r="C44" s="3">
         <v>1.7600948455265265E-2</v>
       </c>
-      <c r="D44" s="3">
-        <v>0.13037483261441873</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44">
+        <v>9.9836260610489114E-2</v>
+      </c>
+      <c r="E44">
         <v>2.1714556779486527E-2</v>
       </c>
-      <c r="F44" s="3">
-        <v>0.12065692298419085</v>
+      <c r="F44">
+        <v>9.0962990926360121E-2</v>
       </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -31686,19 +31423,18 @@
       <c r="C45" s="3">
         <v>9.1343993354656428E-3</v>
       </c>
-      <c r="D45" s="3">
-        <v>6.357589266390129E-2</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45">
+        <v>0.10917044329418557</v>
+      </c>
+      <c r="E45">
         <v>1.740227397717109E-2</v>
       </c>
-      <c r="F45" s="3">
-        <v>4.6880919492669391E-2</v>
+      <c r="F45">
+        <v>7.5479388634965616E-2</v>
       </c>
       <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -31708,19 +31444,18 @@
       <c r="C46" s="3">
         <v>1.0020640545174228E-2</v>
       </c>
-      <c r="D46" s="3">
-        <v>0.10435570418003848</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46">
+        <v>7.4778570673349143E-2</v>
+      </c>
+      <c r="E46">
         <v>1.861410975446065E-2</v>
       </c>
-      <c r="F46" s="3">
-        <v>8.3027114078755473E-2</v>
+      <c r="F46">
+        <v>5.6658075997594211E-2</v>
       </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -31728,21 +31463,20 @@
         <v>45</v>
       </c>
       <c r="C47" s="3">
-        <v>8.8259638969281715E-3</v>
-      </c>
-      <c r="D47" s="3">
+        <v>1.8840192997293E-3</v>
+      </c>
+      <c r="D47">
         <v>5.6899429082496567E-2</v>
       </c>
-      <c r="E47" s="3">
-        <v>1.937733763323457E-2</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47">
+        <v>7.8438796155143597E-3</v>
+      </c>
+      <c r="F47">
         <v>3.7614089485154246E-2</v>
       </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -31752,19 +31486,18 @@
       <c r="C48" s="3">
         <v>9.1304019438005219E-3</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>7.8642413598954963E-2</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48">
         <v>1.4858957604453216E-2</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48">
         <v>6.5692966787837093E-2</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -31774,19 +31507,18 @@
       <c r="C49" s="3">
         <v>1.1112430356061909E-2</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>6.6668813796111004E-2</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49">
         <v>2.0474878538684349E-2</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49">
         <v>4.8301445094402512E-2</v>
       </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -31796,17 +31528,16 @@
       <c r="C50" s="3">
         <v>1.2389613390461286E-2</v>
       </c>
-      <c r="D50" s="3">
-        <v>0.12289871588113555</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50">
+        <v>0.10214242378704463</v>
+      </c>
+      <c r="E50">
         <v>2.3780909163713004E-2</v>
       </c>
-      <c r="F50" s="3">
-        <v>9.8112121407240391E-2</v>
+      <c r="F50">
+        <v>7.2814717628659723E-2</v>
       </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31815,17 +31546,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31842,46 +31572,46 @@
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="16" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="8" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="8"/>
+      <c r="V1" s="13"/>
       <c r="W1" s="5" t="s">
         <v>65</v>
       </c>
@@ -31960,27 +31690,27 @@
         <f>IF(Muertes!J2="","",BETAINV(0.975,Muertes!J2+1,'Cantidad inicial'!J2-Muertes!J2+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="8">
         <f>MIN(C2,E2,G2,I2,M2,Q2,O2,Q2)</f>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="8">
         <f>MAX(D2,F2,H2,J2,N2,R2,P2,R2)</f>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="8">
         <f>MAX(C2,E2,G2,I2,M2,Q2,O2,Q2)</f>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="8">
         <f>MIN(D2,F2,H2,J2,N2,R2,P2,R2)</f>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="8">
         <f>(S2+T2)/2</f>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="8">
         <f>(U2+V2)/2</f>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -32056,27 +31786,27 @@
         <f>IF(Muertes!J3="","",BETAINV(0.975,Muertes!J3+1,'Cantidad inicial'!J3-Muertes!J3+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="8">
         <f t="shared" ref="S3:S49" si="0">MIN(C3,E3,G3,I3,M3,Q3,O3,Q3)</f>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="8">
         <f t="shared" ref="T3:T49" si="1">MAX(D3,F3,H3,J3,N3,R3,P3,R3)</f>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="8">
         <f t="shared" ref="U3:U49" si="2">MAX(C3,E3,G3,I3,M3,Q3,O3,Q3)</f>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="8">
         <f t="shared" ref="V3:V49" si="3">MIN(D3,F3,H3,J3,N3,R3,P3,R3)</f>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="8">
         <f t="shared" ref="W3:W49" si="4">(S3+T3)/2</f>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="8">
         <f t="shared" ref="X3:X49" si="5">(U3+V3)/2</f>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -32152,27 +31882,27 @@
         <f>IF(Muertes!J4="","",BETAINV(0.975,Muertes!J4+1,'Cantidad inicial'!J4-Muertes!J4+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -32248,27 +31978,27 @@
         <f>IF(Muertes!J5="","",BETAINV(0.975,Muertes!J5+1,'Cantidad inicial'!J5-Muertes!J5+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -32344,27 +32074,27 @@
         <f>IF(Muertes!J6="","",BETAINV(0.975,Muertes!J6+1,'Cantidad inicial'!J6-Muertes!J6+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -32440,27 +32170,27 @@
         <f>IF(Muertes!J7="","",BETAINV(0.975,Muertes!J7+1,'Cantidad inicial'!J7-Muertes!J7+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -32536,27 +32266,27 @@
         <f>IF(Muertes!J8="","",BETAINV(0.975,Muertes!J8+1,'Cantidad inicial'!J8-Muertes!J8+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -32632,27 +32362,27 @@
         <f>IF(Muertes!J9="","",BETAINV(0.975,Muertes!J9+1,'Cantidad inicial'!J9-Muertes!J9+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -32728,27 +32458,27 @@
         <f>IF(Muertes!J10="","",BETAINV(0.975,Muertes!J10+1,'Cantidad inicial'!J10-Muertes!J10+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -32824,27 +32554,27 @@
         <f>IF(Muertes!J11="","",BETAINV(0.975,Muertes!J11+1,'Cantidad inicial'!J11-Muertes!J11+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -32920,27 +32650,27 @@
         <f>IF(Muertes!J12="","",BETAINV(0.975,Muertes!J12+1,'Cantidad inicial'!J12-Muertes!J12+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33016,27 +32746,27 @@
         <f>IF(Muertes!J13="","",BETAINV(0.975,Muertes!J13+1,'Cantidad inicial'!J13-Muertes!J13+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33112,27 +32842,27 @@
         <f>IF(Muertes!J14="","",BETAINV(0.975,Muertes!J14+1,'Cantidad inicial'!J14-Muertes!J14+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33208,27 +32938,27 @@
         <f>IF(Muertes!J15="","",BETAINV(0.975,Muertes!J15+1,'Cantidad inicial'!J15-Muertes!J15+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33304,27 +33034,27 @@
         <f>IF(Muertes!J16="","",BETAINV(0.975,Muertes!J16+1,'Cantidad inicial'!J16-Muertes!J16+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33400,27 +33130,27 @@
         <f>IF(Muertes!J17="","",BETAINV(0.975,Muertes!J17+1,'Cantidad inicial'!J17-Muertes!J17+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33496,27 +33226,27 @@
         <f>IF(Muertes!J18="","",BETAINV(0.975,Muertes!J18+1,'Cantidad inicial'!J18-Muertes!J18+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W18" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33592,27 +33322,27 @@
         <f>IF(Muertes!J19="","",BETAINV(0.975,Muertes!J19+1,'Cantidad inicial'!J19-Muertes!J19+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W19" s="11">
+      <c r="W19" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33688,27 +33418,27 @@
         <f>IF(Muertes!J20="","",BETAINV(0.975,Muertes!J20+1,'Cantidad inicial'!J20-Muertes!J20+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U20" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W20" s="11">
+      <c r="W20" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33784,27 +33514,27 @@
         <f>IF(Muertes!J21="","",BETAINV(0.975,Muertes!J21+1,'Cantidad inicial'!J21-Muertes!J21+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V21" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W21" s="11">
+      <c r="W21" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33880,27 +33610,27 @@
         <f>IF(Muertes!J22="","",BETAINV(0.975,Muertes!J22+1,'Cantidad inicial'!J22-Muertes!J22+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U22" s="11">
+      <c r="U22" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V22" s="11">
+      <c r="V22" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W22" s="11">
+      <c r="W22" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X22" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -33976,27 +33706,27 @@
         <f>IF(Muertes!J23="","",BETAINV(0.975,Muertes!J23+1,'Cantidad inicial'!J23-Muertes!J23+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U23" s="11">
+      <c r="U23" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W23" s="11">
+      <c r="W23" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X23" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -34072,27 +33802,27 @@
         <f>IF(Muertes!J24="","",BETAINV(0.975,Muertes!J24+1,'Cantidad inicial'!J24-Muertes!J24+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W24" s="11">
+      <c r="W24" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X24" s="11">
+      <c r="X24" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -34168,27 +33898,27 @@
         <f>IF(Muertes!J25="","",BETAINV(0.975,Muertes!J25+1,'Cantidad inicial'!J25-Muertes!J25+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V25" s="11">
+      <c r="V25" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W25" s="11">
+      <c r="W25" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X25" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -34264,27 +33994,27 @@
         <f>IF(Muertes!J26="","",BETAINV(0.975,Muertes!J26+1,'Cantidad inicial'!J26-Muertes!J26+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V26" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W26" s="11">
+      <c r="W26" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X26" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -34360,27 +34090,27 @@
         <f>IF(Muertes!J27="","",BETAINV(0.975,Muertes!J27+1,'Cantidad inicial'!J27-Muertes!J27+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V27" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W27" s="11">
+      <c r="W27" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X27" s="11">
+      <c r="X27" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -34456,27 +34186,27 @@
         <f>IF(Muertes!J28="","",BETAINV(0.975,Muertes!J28+1,'Cantidad inicial'!J28-Muertes!J28+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U28" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V28" s="11">
+      <c r="V28" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W28" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X28" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -34552,27 +34282,27 @@
         <f>IF(Muertes!J29="","",BETAINV(0.975,Muertes!J29+1,'Cantidad inicial'!J29-Muertes!J29+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V29" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W29" s="11">
+      <c r="W29" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X29" s="11">
+      <c r="X29" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -34648,27 +34378,27 @@
         <f>IF(Muertes!J30="","",BETAINV(0.975,Muertes!J30+1,'Cantidad inicial'!J30-Muertes!J30+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S30" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T30" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U30" s="11">
+      <c r="U30" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V30" s="11">
+      <c r="V30" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W30" s="11">
+      <c r="W30" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X30" s="11">
+      <c r="X30" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -34744,27 +34474,27 @@
         <f>IF(Muertes!J31="","",BETAINV(0.975,Muertes!J31+1,'Cantidad inicial'!J31-Muertes!J31+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S31" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T31" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U31" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V31" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W31" s="11">
+      <c r="W31" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X31" s="11">
+      <c r="X31" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -34840,27 +34570,27 @@
         <f>IF(Muertes!J32="","",BETAINV(0.975,Muertes!J32+1,'Cantidad inicial'!J32-Muertes!J32+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U32" s="11">
+      <c r="U32" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V32" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W32" s="11">
+      <c r="W32" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X32" s="11">
+      <c r="X32" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -34936,27 +34666,27 @@
         <f>IF(Muertes!J33="","",BETAINV(0.975,Muertes!J33+1,'Cantidad inicial'!J33-Muertes!J33+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U33" s="11">
+      <c r="U33" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V33" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W33" s="11">
+      <c r="W33" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X33" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35032,27 +34762,27 @@
         <f>IF(Muertes!J34="","",BETAINV(0.975,Muertes!J34+1,'Cantidad inicial'!J34-Muertes!J34+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U34" s="11">
+      <c r="U34" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V34" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W34" s="11">
+      <c r="W34" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X34" s="11">
+      <c r="X34" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35128,27 +34858,27 @@
         <f>IF(Muertes!J35="","",BETAINV(0.975,Muertes!J35+1,'Cantidad inicial'!J35-Muertes!J35+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T35" s="11">
+      <c r="T35" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U35" s="11">
+      <c r="U35" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V35" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W35" s="11">
+      <c r="W35" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X35" s="11">
+      <c r="X35" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35224,27 +34954,27 @@
         <f>IF(Muertes!J36="","",BETAINV(0.975,Muertes!J36+1,'Cantidad inicial'!J36-Muertes!J36+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U36" s="11">
+      <c r="U36" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V36" s="11">
+      <c r="V36" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W36" s="11">
+      <c r="W36" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X36" s="11">
+      <c r="X36" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35320,27 +35050,27 @@
         <f>IF(Muertes!J37="","",BETAINV(0.975,Muertes!J37+1,'Cantidad inicial'!J37-Muertes!J37+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S37" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T37" s="11">
+      <c r="T37" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U37" s="11">
+      <c r="U37" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V37" s="11">
+      <c r="V37" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W37" s="11">
+      <c r="W37" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X37" s="11">
+      <c r="X37" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35416,27 +35146,27 @@
         <f>IF(Muertes!J38="","",BETAINV(0.975,Muertes!J38+1,'Cantidad inicial'!J38-Muertes!J38+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S38" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T38" s="11">
+      <c r="T38" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U38" s="11">
+      <c r="U38" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V38" s="11">
+      <c r="V38" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W38" s="11">
+      <c r="W38" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X38" s="11">
+      <c r="X38" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35512,27 +35242,27 @@
         <f>IF(Muertes!J39="","",BETAINV(0.975,Muertes!J39+1,'Cantidad inicial'!J39-Muertes!J39+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S39" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U39" s="11">
+      <c r="U39" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V39" s="11">
+      <c r="V39" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W39" s="11">
+      <c r="W39" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X39" s="11">
+      <c r="X39" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35608,27 +35338,27 @@
         <f>IF(Muertes!J40="","",BETAINV(0.975,Muertes!J40+1,'Cantidad inicial'!J40-Muertes!J40+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S40" s="11">
+      <c r="S40" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T40" s="11">
+      <c r="T40" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U40" s="11">
+      <c r="U40" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V40" s="11">
+      <c r="V40" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W40" s="11">
+      <c r="W40" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X40" s="11">
+      <c r="X40" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35704,27 +35434,27 @@
         <f>IF(Muertes!J41="","",BETAINV(0.975,Muertes!J41+1,'Cantidad inicial'!J41-Muertes!J41+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S41" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U41" s="11">
+      <c r="U41" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V41" s="11">
+      <c r="V41" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W41" s="11">
+      <c r="W41" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X41" s="11">
+      <c r="X41" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35800,27 +35530,27 @@
         <f>IF(Muertes!J42="","",BETAINV(0.975,Muertes!J42+1,'Cantidad inicial'!J42-Muertes!J42+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S42" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U42" s="11">
+      <c r="U42" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V42" s="11">
+      <c r="V42" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W42" s="11">
+      <c r="W42" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X42" s="11">
+      <c r="X42" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35896,27 +35626,27 @@
         <f>IF(Muertes!J43="","",BETAINV(0.975,Muertes!J43+1,'Cantidad inicial'!J43-Muertes!J43+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S43" s="11">
+      <c r="S43" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T43" s="11">
+      <c r="T43" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U43" s="11">
+      <c r="U43" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V43" s="11">
+      <c r="V43" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W43" s="11">
+      <c r="W43" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X43" s="11">
+      <c r="X43" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -35992,27 +35722,27 @@
         <f>IF(Muertes!J44="","",BETAINV(0.975,Muertes!J44+1,'Cantidad inicial'!J44-Muertes!J44+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S44" s="11">
+      <c r="S44" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T44" s="11">
+      <c r="T44" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U44" s="11">
+      <c r="U44" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V44" s="11">
+      <c r="V44" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W44" s="11">
+      <c r="W44" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X44" s="11">
+      <c r="X44" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -36088,27 +35818,27 @@
         <f>IF(Muertes!J45="","",BETAINV(0.975,Muertes!J45+1,'Cantidad inicial'!J45-Muertes!J45+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S45" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T45" s="11">
+      <c r="T45" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U45" s="11">
+      <c r="U45" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V45" s="11">
+      <c r="V45" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W45" s="11">
+      <c r="W45" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X45" s="11">
+      <c r="X45" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -36184,27 +35914,27 @@
         <f>IF(Muertes!J46="","",BETAINV(0.975,Muertes!J46+1,'Cantidad inicial'!J46-Muertes!J46+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S46" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U46" s="11">
+      <c r="U46" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V46" s="11">
+      <c r="V46" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W46" s="11">
+      <c r="W46" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X46" s="11">
+      <c r="X46" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -36280,27 +36010,27 @@
         <f>IF(Muertes!J47="","",BETAINV(0.975,Muertes!J47+1,'Cantidad inicial'!J47-Muertes!J47+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U47" s="11">
+      <c r="U47" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V47" s="11">
+      <c r="V47" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W47" s="11">
+      <c r="W47" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X47" s="11">
+      <c r="X47" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -36376,27 +36106,27 @@
         <f>IF(Muertes!J48="","",BETAINV(0.975,Muertes!J48+1,'Cantidad inicial'!J48-Muertes!J48+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S48" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T48" s="11">
+      <c r="T48" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U48" s="11">
+      <c r="U48" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V48" s="11">
+      <c r="V48" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W48" s="11">
+      <c r="W48" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X48" s="11">
+      <c r="X48" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
       </c>
@@ -36472,53 +36202,43 @@
         <f>IF(Muertes!J49="","",BETAINV(0.975,Muertes!J49+1,'Cantidad inicial'!J49-Muertes!J49+1))</f>
         <v>0.10570198501650863</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S49" s="8">
         <f t="shared" si="0"/>
         <v>7.7040372688733484E-3</v>
       </c>
-      <c r="T49" s="11">
+      <c r="T49" s="8">
         <f t="shared" si="1"/>
         <v>0.15944240892803996</v>
       </c>
-      <c r="U49" s="11">
+      <c r="U49" s="8">
         <f t="shared" si="2"/>
         <v>5.0516420894019365E-2</v>
       </c>
-      <c r="V49" s="11">
+      <c r="V49" s="8">
         <f t="shared" si="3"/>
         <v>8.6362867945887989E-2</v>
       </c>
-      <c r="W49" s="11">
+      <c r="W49" s="8">
         <f t="shared" si="4"/>
         <v>8.3573223098456648E-2</v>
       </c>
-      <c r="X49" s="11">
+      <c r="X49" s="8">
         <f t="shared" si="5"/>
         <v>6.8439644419953677E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <f>IF(Muertes!C50="","",GAMMAINV(0.025,Muertes!C50+(1/2),1))</f>
-        <v>211.06270484284562</v>
-      </c>
-      <c r="D50">
-        <f>IF(Muertes!C50="","",GAMMAINV(0.975,Muertes!C50+(1/2),1))</f>
-        <v>271.83103387727141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/propuesta fundemerca.xlsx
+++ b/propuesta fundemerca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="2" r:id="rId1"/>
@@ -365,14 +365,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16404,7 +16404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17182,7 +17181,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22316,7 +22314,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:J49"/>
     </sheetView>
   </sheetViews>
@@ -24368,7 +24366,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -26420,8 +26418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27077,7 +27075,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
@@ -30486,7 +30484,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -31572,42 +31570,42 @@
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="15"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="13" t="s">
         <v>60</v>
       </c>
@@ -36229,16 +36227,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/propuesta fundemerca.xlsx
+++ b/propuesta fundemerca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="85">
   <si>
     <t>Cód</t>
   </si>
@@ -276,6 +276,15 @@
   <si>
     <t>PROBABILIDAD</t>
   </si>
+  <si>
+    <t>Marca de clase</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exigente </t>
+  </si>
 </sst>
 </file>
 
@@ -365,26 +374,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCC99"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -459,7 +473,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5430,7 +5443,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5537,7 +5549,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10508,7 +10519,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16380,6 +16390,1640 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>INTERVALOS FLEXIBLES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intervalos propuestos'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inferior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos propuestos'!$C$3:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>9.7788152551082606E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0581631174453454E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1754046717507276E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2428363815292233E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0020640545174228E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000451058836728E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0466577968975184E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2810853173733503E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8405081358488655E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.180265033409368E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3798118951068071E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.503385333038859E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6969719322400365E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0521720534539213E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2065222154757494E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2830696306044517E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1343993354656428E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3460181046352338E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3265827355353501E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3782054174299683E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4870021380749694E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.9824077603693131E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9580120086738468E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6867875816285214E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8293768220318581E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4220173564151612E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0955613625522732E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4035753845365116E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4979976844291159E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1155165317512842E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0466787871979192E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0867700627293417E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0595299369769424E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.573168907624995E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4699745082761991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3236475204520384E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1334534236819788E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.134472959163948E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0085502919607348E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.9580120086738468E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5331462364387463E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7600948455265265E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.1343993354656428E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0020640545174228E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8840192997293E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.1304019438005219E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1112430356061909E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2389613390461286E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16A8-4896-8F25-53EA7AADCB98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intervalos propuestos'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Superior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos propuestos'!$D$3:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.5913877215295975E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9117242344121874E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7318606749461773E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10037325114945084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7545953319678831E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11155978396773025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1052604365895777E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3201112315604324E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14119004715724803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3753696224667773E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5245988168233229E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15441677682749588</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11789028780157729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7327671070721693E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.996780784975043E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0369036165242602E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4432235631596733E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10313654794550842</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7705555294467747E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.054415466789421E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.357589266390129E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12247071822539768</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6702967402606625E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4783418224861333E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6321410568283343E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10067736645664904</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1460393991038336E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9076258183104939E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.3365474637230421E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4062077258677426E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2837734257360953E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.4569622773026247E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11864461620810685</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8032760806448258E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.2622259618890914E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3021956893641549E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9639356455248547E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.2293243542040022E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.12840007592700819</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11411080486394343</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.5872048118610156E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.9836260610489114E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.10917044329418557</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.4778570673349143E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.6899429082496567E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.8642413598954963E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.6668813796111004E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10214242378704463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16A8-4896-8F25-53EA7AADCB98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intervalos propuestos'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>flexible</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos propuestos'!$G$3:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>4.784634623520212E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4849436759287667E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9536326733484527E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6400807482371536E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8783296932426527E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0780117513283494E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.075959116743548E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3741098816488839E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5015277646548445E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2778173279380725E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4522053559650649E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9960081080267364E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7430003561988833E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3924695802630455E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1016515002253964E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6599866235643557E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1783317483531188E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6241283025071823E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9516069015001548E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5278968361034252E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6531447400988126E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.62265629928835E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.233048970564024E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0825647020573272E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9575393695157599E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.744877001040033E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9277977676795301E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1556006014235031E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7431736160829766E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5588796895214355E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1652261064670071E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3828196417877793E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4619957788938129E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2302964857036626E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3046117063583557E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3129216049080966E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.048694534603417E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6818986566839754E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9242789423307777E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.103440843630864E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0601755241498812E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.8718604532877187E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.9152421314825607E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2399605609261683E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.9391724191112932E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.3886407771377742E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8890622076086456E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7266018588752958E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-16A8-4896-8F25-53EA7AADCB98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="441982416"/>
+        <c:axId val="441981168"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="441982416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441981168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441981168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441982416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>INTERVALOS EXIGENTES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intervalos propuestos'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inferior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos propuestos'!$E$3:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1.8464555865077115E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5488285801558477E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1339404543395446E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5405554786504858E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.861410975446065E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.411553244548692E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9928097326246008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4499390410438795E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6996802499655517E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2465822272314102E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7855731346684065E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2528171559232359E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2653342394252984E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5992626733667414E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.958287330209485E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9443783600047393E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.740227397717109E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0512659653128429E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3392021204187206E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.006084982533296E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8071113181189591E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9362577136936565E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5933966830937729E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1819024573725199E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.7609709574213444E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7028324269193993E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4545521517898785E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4372543362244148E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.047231807107976E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4586274342798577E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8882110810163E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3183749251233294E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7782747633616647E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3647336399046694E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0786124867182627E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3542555230794737E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6988720462365881E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7368542718371405E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5697641157323194E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5933966830937729E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9738379125890493E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1714556779486527E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.740227397717109E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.861410975446065E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.8438796155143597E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4858957604453216E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0474878538684349E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3780909163713004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51BB-465F-9B2F-8D0A0DAF67A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intervalos propuestos'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Superior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos propuestos'!$F$3:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>6.6502590428620278E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7478812792070991E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0131485534768455E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3168264260430854E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9055701752429751E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9865880475373505E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3390765979019546E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6556371699174315E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11743907636986073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4324485196669464E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4652583497444871E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.128872845880738</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10502449496865905</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3574655205062849E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0054134380961979E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7034192539259449E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6350813646779553E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6330936165841884E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6214920629670961E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8970952423400181E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6880919492669391E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.7724423014538334E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0308632478614584E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5897816608143996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6648430365609452E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4186838650892623E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1445980706064643E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8977307187676487E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0845626424668862E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4857754252320987E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3986217274952807E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5358889203911186E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.9525991761323707E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2589900693957065E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.2894482434461677E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6574956178320581E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6797412621892994E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0356594105307885E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11043169002348147</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.1452882234430183E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.6746772909233318E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0962990926360121E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.5479388634965616E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.6658075997594211E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7614089485154246E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5692966787837093E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8301445094402512E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.2814717628659723E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51BB-465F-9B2F-8D0A0DAF67A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intervalos propuestos'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exigente </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos propuestos'!$H$3:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>4.2483573146848697E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1483549296814734E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5735445039081951E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9286909523467856E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3834905753445201E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1990706460430212E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6659431652632773E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0527881054806555E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7217939434758123E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8395153734491783E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1254157422064471E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0700508719985178E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3838918681456025E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9783640969365132E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9818503841528415E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3238988069653421E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6876543811975318E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8421797909485156E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7277061375044841E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5488518702966739E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2476016336929495E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8543500075737449E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3121299654776157E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8858420590934598E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3204700661515402E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0607581460043308E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2995751111981714E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6674925274960317E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2446429115888423E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9722014297559782E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6434164042557907E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7338632064517258E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8654369697470177E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.811861854650188E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.598654746058997E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5058755704557659E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6893066542129441E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3862568411839641E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.306466559040233E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3693424532683956E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8242576017561906E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.6338773852923324E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6440831306068353E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7636092876027427E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2728984550334303E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0275962196145154E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.4388161816543431E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.8297813396186363E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-51BB-465F-9B2F-8D0A0DAF67A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="441986992"/>
+        <c:axId val="441993232"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="441986992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441993232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441993232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441986992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -16404,6 +18048,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17141,7 +18786,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -17181,6 +18826,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18159,6 +19805,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20779,6 +22505,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21298,7 +24056,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21987,6 +24745,159 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05236</cdr:x>
+      <cdr:y>0.69594</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98429</cdr:x>
+      <cdr:y>0.70118</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Conector recto 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="381000" y="2528888"/>
+          <a:ext cx="6781800" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04849</cdr:x>
+      <cdr:y>0.63444</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98952</cdr:x>
+      <cdr:y>0.63709</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Conector recto 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="352426" y="2281238"/>
+          <a:ext cx="6838950" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
@@ -27076,7 +29987,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30442,16 +33353,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C50:K50">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K49">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>"0.05"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:J49">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30461,7 +33377,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="8" id="{F0E5EDA9-07DA-4AB7-BE05-20B60A455445}">
+          <x14:cfRule type="expression" priority="9" id="{F0E5EDA9-07DA-4AB7-BE05-20B60A455445}">
             <xm:f>C2&gt;'Intervalos propuestos'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -30484,8 +33400,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30504,8 +33420,10 @@
         <v>62</v>
       </c>
       <c r="F1" s="13"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -30526,8 +33444,12 @@
       <c r="F2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -30548,7 +33470,12 @@
       <c r="F3">
         <v>6.6502590428620278E-2</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>4.784634623520212E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.2483573146848697E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -30569,7 +33496,12 @@
       <c r="F4">
         <v>6.7478812792070991E-2</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>4.4849436759287667E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1483549296814734E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -30590,7 +33522,12 @@
       <c r="F5">
         <v>5.0131485534768455E-2</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>3.9536326733484527E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.5735445039081951E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -30611,7 +33548,12 @@
       <c r="F6">
         <v>7.3168264260430854E-2</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>5.6400807482371536E-2</v>
+      </c>
+      <c r="H6">
+        <v>4.9286909523467856E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -30632,7 +33574,12 @@
       <c r="F7">
         <v>4.9055701752429751E-2</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>3.8783296932426527E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.3834905753445201E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -30653,7 +33600,12 @@
       <c r="F8">
         <v>7.9865880475373505E-2</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>6.0780117513283494E-2</v>
+      </c>
+      <c r="H8">
+        <v>5.1990706460430212E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -30674,7 +33626,12 @@
       <c r="F9">
         <v>5.3390765979019546E-2</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>4.075959116743548E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.6659431652632773E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -30695,7 +33652,12 @@
       <c r="F10">
         <v>4.6556371699174315E-2</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>3.3741098816488839E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.0527881054806555E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -30716,7 +33678,12 @@
       <c r="F11">
         <v>0.11743907636986073</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>7.5015277646548445E-2</v>
+      </c>
+      <c r="H11">
+        <v>6.7217939434758123E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -30737,7 +33704,12 @@
       <c r="F12">
         <v>5.4324485196669464E-2</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>5.2778173279380725E-2</v>
+      </c>
+      <c r="H12">
+        <v>4.8395153734491783E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -30758,7 +33730,12 @@
       <c r="F13">
         <v>3.4652583497444871E-2</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>3.4522053559650649E-2</v>
+      </c>
+      <c r="H13">
+        <v>3.1254157422064471E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -30779,7 +33756,12 @@
       <c r="F14">
         <v>0.128872845880738</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>7.9960081080267364E-2</v>
+      </c>
+      <c r="H14">
+        <v>7.0700508719985178E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -30800,7 +33782,12 @@
       <c r="F15">
         <v>0.10502449496865905</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>6.7430003561988833E-2</v>
+      </c>
+      <c r="H15">
+        <v>6.3838918681456025E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -30821,9 +33808,14 @@
       <c r="F16">
         <v>6.3574655205062849E-2</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>4.3924695802630455E-2</v>
+      </c>
+      <c r="H16">
+        <v>3.9783640969365132E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -30842,9 +33834,14 @@
       <c r="F17">
         <v>6.0054134380961979E-2</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>4.1016515002253964E-2</v>
+      </c>
+      <c r="H17">
+        <v>3.9818503841528415E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -30863,9 +33860,14 @@
       <c r="F18">
         <v>6.7034192539259449E-2</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>4.6599866235643557E-2</v>
+      </c>
+      <c r="H18">
+        <v>4.3238988069653421E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -30884,9 +33886,14 @@
       <c r="F19">
         <v>5.6350813646779553E-2</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>4.1783317483531188E-2</v>
+      </c>
+      <c r="H19">
+        <v>3.6876543811975318E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -30905,9 +33912,14 @@
       <c r="F20">
         <v>7.6330936165841884E-2</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>5.6241283025071823E-2</v>
+      </c>
+      <c r="H20">
+        <v>4.8421797909485156E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -30926,9 +33938,14 @@
       <c r="F21">
         <v>4.6214920629670961E-2</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>2.9516069015001548E-2</v>
+      </c>
+      <c r="H21">
+        <v>2.7277061375044841E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -30947,9 +33964,14 @@
       <c r="F22">
         <v>4.8970952423400181E-2</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>3.5278968361034252E-2</v>
+      </c>
+      <c r="H22">
+        <v>2.5488518702966739E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -30968,9 +33990,14 @@
       <c r="F23">
         <v>4.6880919492669391E-2</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>3.6531447400988126E-2</v>
+      </c>
+      <c r="H23">
+        <v>3.2476016336929495E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -30989,9 +34016,14 @@
       <c r="F24">
         <v>9.7724423014538334E-2</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>6.62265629928835E-2</v>
+      </c>
+      <c r="H24">
+        <v>5.8543500075737449E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -31010,9 +34042,14 @@
       <c r="F25">
         <v>5.0308632478614584E-2</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>4.233048970564024E-2</v>
+      </c>
+      <c r="H25">
+        <v>3.3121299654776157E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -31031,9 +34068,14 @@
       <c r="F26">
         <v>5.5897816608143996E-2</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3">
+        <v>4.0825647020573272E-2</v>
+      </c>
+      <c r="H26">
+        <v>3.8858420590934598E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -31052,9 +34094,14 @@
       <c r="F27">
         <v>5.6648430365609452E-2</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <v>3.9575393695157599E-2</v>
+      </c>
+      <c r="H27">
+        <v>3.3204700661515402E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -31073,9 +34120,14 @@
       <c r="F28">
         <v>7.4186838650892623E-2</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3">
+        <v>5.744877001040033E-2</v>
+      </c>
+      <c r="H28">
+        <v>5.0607581460043308E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -31094,9 +34146,14 @@
       <c r="F29">
         <v>7.1445980706064643E-2</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3">
+        <v>4.9277977676795301E-2</v>
+      </c>
+      <c r="H29">
+        <v>4.2995751111981714E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -31115,9 +34172,14 @@
       <c r="F30">
         <v>6.8977307187676487E-2</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3">
+        <v>5.1556006014235031E-2</v>
+      </c>
+      <c r="H30">
+        <v>4.6674925274960317E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -31136,9 +34198,14 @@
       <c r="F31">
         <v>6.0845626424668862E-2</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3">
+        <v>3.7431736160829766E-2</v>
+      </c>
+      <c r="H31">
+        <v>3.2446429115888423E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -31157,9 +34224,14 @@
       <c r="F32">
         <v>6.4857754252320987E-2</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3">
+        <v>4.5588796895214355E-2</v>
+      </c>
+      <c r="H32">
+        <v>3.9722014297559782E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -31178,9 +34250,14 @@
       <c r="F33">
         <v>5.3986217274952807E-2</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <v>4.1652261064670071E-2</v>
+      </c>
+      <c r="H33">
+        <v>3.6434164042557907E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -31199,9 +34276,14 @@
       <c r="F34">
         <v>4.5358889203911186E-2</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3">
+        <v>3.3828196417877793E-2</v>
+      </c>
+      <c r="H34">
+        <v>2.7338632064517258E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -31220,9 +34302,14 @@
       <c r="F35">
         <v>9.9525991761323707E-2</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3">
+        <v>6.4619957788938129E-2</v>
+      </c>
+      <c r="H35">
+        <v>5.8654369697470177E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -31241,9 +34328,14 @@
       <c r="F36">
         <v>4.2589900693957065E-2</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>3.2302964857036626E-2</v>
+      </c>
+      <c r="H36">
+        <v>2.811861854650188E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -31262,9 +34354,14 @@
       <c r="F37">
         <v>6.2894482434461677E-2</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>4.3046117063583557E-2</v>
+      </c>
+      <c r="H37">
+        <v>3.598654746058997E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -31283,9 +34380,14 @@
       <c r="F38">
         <v>4.6574956178320581E-2</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3">
+        <v>4.3129216049080966E-2</v>
+      </c>
+      <c r="H38">
+        <v>3.5058755704557659E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -31304,9 +34406,14 @@
       <c r="F39">
         <v>5.6797412621892994E-2</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3">
+        <v>4.048694534603417E-2</v>
+      </c>
+      <c r="H39">
+        <v>3.6893066542129441E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -31325,9 +34432,14 @@
       <c r="F40">
         <v>5.0356594105307885E-2</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3">
+        <v>3.6818986566839754E-2</v>
+      </c>
+      <c r="H40">
+        <v>3.3862568411839641E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -31346,9 +34458,14 @@
       <c r="F41">
         <v>0.11043169002348147</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3">
+        <v>6.9242789423307777E-2</v>
+      </c>
+      <c r="H41">
+        <v>6.306466559040233E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -31367,9 +34484,14 @@
       <c r="F42">
         <v>9.1452882234430183E-2</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="3">
+        <v>6.103440843630864E-2</v>
+      </c>
+      <c r="H42">
+        <v>5.3693424532683956E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -31388,9 +34510,14 @@
       <c r="F43">
         <v>7.6746772909233318E-2</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="3">
+        <v>5.0601755241498812E-2</v>
+      </c>
+      <c r="H43">
+        <v>4.8242576017561906E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -31409,9 +34536,14 @@
       <c r="F44">
         <v>9.0962990926360121E-2</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3">
+        <v>5.8718604532877187E-2</v>
+      </c>
+      <c r="H44">
+        <v>5.6338773852923324E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -31430,9 +34562,14 @@
       <c r="F45">
         <v>7.5479388634965616E-2</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="3">
+        <v>5.9152421314825607E-2</v>
+      </c>
+      <c r="H45">
+        <v>4.6440831306068353E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -31451,9 +34588,14 @@
       <c r="F46">
         <v>5.6658075997594211E-2</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="G46" s="3">
+        <v>4.2399605609261683E-2</v>
+      </c>
+      <c r="H46">
+        <v>3.7636092876027427E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -31472,9 +34614,14 @@
       <c r="F47">
         <v>3.7614089485154246E-2</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3">
+        <v>2.9391724191112932E-2</v>
+      </c>
+      <c r="H47">
+        <v>2.2728984550334303E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -31493,9 +34640,14 @@
       <c r="F48">
         <v>6.5692966787837093E-2</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="3">
+        <v>4.3886407771377742E-2</v>
+      </c>
+      <c r="H48">
+        <v>4.0275962196145154E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -31514,9 +34666,14 @@
       <c r="F49">
         <v>4.8301445094402512E-2</v>
       </c>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3">
+        <v>3.8890622076086456E-2</v>
+      </c>
+      <c r="H49">
+        <v>3.4388161816543431E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -31535,15 +34692,22 @@
       <c r="F50">
         <v>7.2814717628659723E-2</v>
       </c>
-      <c r="G50" s="3"/>
+      <c r="G50" s="3">
+        <v>5.7266018588752958E-2</v>
+      </c>
+      <c r="H50">
+        <v>4.8297813396186363E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31552,7 +34716,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -31570,42 +34734,42 @@
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="15" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="15"/>
       <c r="U1" s="13" t="s">
         <v>60</v>
       </c>
@@ -36227,16 +39391,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/propuesta fundemerca.xlsx
+++ b/propuesta fundemerca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="2" r:id="rId1"/>
@@ -374,14 +374,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10625,7 +10625,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15596,7 +15595,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -29986,7 +29984,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
@@ -33400,7 +33398,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
@@ -34716,7 +34714,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -34734,42 +34732,42 @@
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="15"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="13" t="s">
         <v>60</v>
       </c>
@@ -39391,16 +39389,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/propuesta fundemerca.xlsx
+++ b/propuesta fundemerca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Intervalos Generados" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -473,6 +474,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5443,6 +5445,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5472,6 +5475,1567 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>INTERVALOS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> FLEXIBLES</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$S$2:$S$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.7040372688733484E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D9F-4637-A581-ABEDB555B7ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$T$2:$T$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.15944240892803996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D9F-4637-A581-ABEDB555B7ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$W$2:$W$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.3573223098456648E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D9F-4637-A581-ABEDB555B7ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="1327807487"/>
+        <c:axId val="1327804575"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="1327807487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1327804575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1327804575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1327807487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>INTERVALOS EXIGENTES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$U$2:$U$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.0516420894019365E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFC1-47C7-8963-CDD938B3623E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$V$2:$V$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.6362867945887989E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFC1-47C7-8963-CDD938B3623E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intervalos Generados'!$X$2:$X$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.8439644419953677E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFC1-47C7-8963-CDD938B3623E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="1299014527"/>
+        <c:axId val="1299012031"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="1299014527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1299012031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1299012031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1299014527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -10625,6 +12189,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15595,6 +17160,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15701,6 +17267,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16114,6 +17681,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16402,6 +17970,740 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
+              <a:t>GRÁFICO DE LAS PROBABILIDADES POR PRODUCTOR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$P$2:$P$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0212-41E6-A20F-EB4914FBFAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1147090592"/>
+        <c:axId val="1147091424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1147090592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147091424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1147091424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147090592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>GRÁFICO DE LAS PROBABILIDADES POR PRODUCTOR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$55:$J$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9384-4E3C-8EEE-3DE050C38741}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1193372224"/>
+        <c:axId val="1193356416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1193372224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193356416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1193356416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193372224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
               <a:t>INTERVALOS FLEXIBLES</a:t>
             </a:r>
           </a:p>
@@ -17184,7 +19486,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -18001,1568 +20303,87 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>INTERVALOS</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> FLEXIBLES</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:stockChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Intervalos Generados'!$S$2:$S$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.7040372688733484E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D9F-4637-A581-ABEDB555B7ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Intervalos Generados'!$T$2:$T$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.15944240892803996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7D9F-4637-A581-ABEDB555B7ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Intervalos Generados'!$W$2:$W$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.3573223098456648E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7D9F-4637-A581-ABEDB555B7ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:axId val="1327807487"/>
-        <c:axId val="1327804575"/>
-      </c:stockChart>
-      <c:catAx>
-        <c:axId val="1327807487"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1327804575"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1327804575"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1327807487"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>INTERVALOS EXIGENTES</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:stockChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Intervalos Generados'!$U$2:$U$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.0516420894019365E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DFC1-47C7-8963-CDD938B3623E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Intervalos Generados'!$V$2:$V$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.6362867945887989E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DFC1-47C7-8963-CDD938B3623E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Intervalos Generados'!$X$2:$X$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.8439644419953677E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DFC1-47C7-8963-CDD938B3623E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:axId val="1299014527"/>
-        <c:axId val="1299012031"/>
-      </c:stockChart>
-      <c:catAx>
-        <c:axId val="1299014527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1299012031"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1299012031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1299014527"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20434,6 +21255,1046 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -22503,6 +24364,1012 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23018,7 +25885,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23534,1046 +26401,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -24731,6 +26558,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25223,8 +27110,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27275,7 +29162,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -29984,8 +31871,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView topLeftCell="C103" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33398,7 +35285,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
@@ -34714,7 +36601,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>

--- a/propuesta fundemerca.xlsx
+++ b/propuesta fundemerca.xlsx
@@ -374,14 +374,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +533,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -631,7 +643,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -705,7 +729,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -779,7 +815,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -853,7 +901,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -927,7 +987,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1003,7 +1075,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1079,7 +1167,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1155,7 +1259,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1231,7 +1351,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1307,7 +1443,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1383,7 +1535,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1460,7 +1628,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1537,7 +1723,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1614,7 +1818,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1691,7 +1913,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1768,7 +2008,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1845,7 +2103,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1921,7 +2197,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1997,7 +2289,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2073,7 +2381,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2149,7 +2473,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2225,7 +2565,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2301,7 +2657,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2378,7 +2750,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2455,7 +2845,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2532,7 +2940,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2609,7 +3035,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2686,7 +3130,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2763,7 +3225,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2839,7 +3319,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2915,7 +3411,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2991,7 +3503,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3067,7 +3595,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3143,7 +3687,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3219,7 +3779,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3296,7 +3872,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3373,7 +3967,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3450,7 +4062,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3527,7 +4157,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3604,7 +4252,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3681,7 +4347,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3757,7 +4441,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3833,7 +4533,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3909,7 +4625,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3985,7 +4717,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -4061,7 +4809,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -4137,7 +4901,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -4195,6 +4975,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1841641535"/>
         <c:axId val="1841647775"/>
@@ -6044,7 +6825,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6142,7 +6935,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6216,7 +7021,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6290,7 +7107,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6364,7 +7193,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6438,7 +7279,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6514,7 +7367,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6590,7 +7459,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6666,7 +7551,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6742,7 +7643,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6818,7 +7735,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6894,7 +7827,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -6971,7 +7920,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7048,7 +8015,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7125,7 +8110,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7202,7 +8205,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7279,7 +8300,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7356,7 +8395,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7432,7 +8489,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7508,7 +8581,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7584,7 +8673,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7660,7 +8765,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7736,7 +8857,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7812,7 +8949,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7889,7 +9042,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7966,7 +9137,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8043,7 +9232,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8120,7 +9327,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8197,7 +9422,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8274,7 +9517,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8350,7 +9611,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8426,7 +9703,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8502,7 +9795,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8578,7 +9887,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8654,7 +9979,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8730,7 +10071,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8807,7 +10164,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8884,7 +10259,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8961,7 +10354,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -9038,7 +10449,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -9115,7 +10544,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -9192,7 +10639,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -9268,7 +10733,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -9344,7 +10825,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -9420,7 +10917,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -9496,7 +11009,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -9572,7 +11101,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -9648,7 +11193,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -9706,6 +11267,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1838581903"/>
         <c:axId val="1833699599"/>
@@ -9994,7 +11556,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -10092,7 +11666,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -10190,7 +11776,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -10288,7 +11886,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -10386,7 +11996,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -10484,7 +12106,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -10584,7 +12218,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -10684,7 +12334,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -10784,7 +12450,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -10884,7 +12566,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -10984,7 +12682,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11084,7 +12798,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11185,7 +12915,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11286,7 +13034,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11387,7 +13153,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11488,7 +13272,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11589,7 +13391,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11690,7 +13510,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11790,7 +13628,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11890,7 +13744,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11990,7 +13860,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -12090,7 +13976,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -12190,7 +14092,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -12290,7 +14208,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -12391,7 +14325,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -12492,7 +14444,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -12593,7 +14563,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -12694,7 +14682,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -12795,7 +14801,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -12896,7 +14920,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -12996,7 +15038,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -13096,7 +15154,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -13196,7 +15270,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -13296,7 +15386,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -13396,7 +15502,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -13496,7 +15618,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -13597,7 +15735,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -13698,7 +15854,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -13799,7 +15973,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -13900,7 +16092,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -14001,7 +16211,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -14102,7 +16330,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -14202,7 +16448,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -14302,7 +16564,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -14402,7 +16680,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -14502,7 +16796,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -14602,7 +16912,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -14702,7 +17028,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -14784,6 +17126,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1400395263"/>
         <c:axId val="1400382367"/>
@@ -15012,7 +17355,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15439,7 +17781,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15746,7 +18087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16173,7 +18513,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24881,7 +27220,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -25805,7 +28144,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:J49"/>
     </sheetView>
   </sheetViews>
@@ -27386,8 +29725,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView topLeftCell="J55" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32134,42 +34473,42 @@
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="15"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="13" t="s">
         <v>60</v>
       </c>
@@ -36791,16 +39130,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
